--- a/output.xlsx
+++ b/output.xlsx
@@ -36,1804 +36,1804 @@
     <t>меч</t>
   </si>
   <si>
-    <t>([','], 8.977898597717285)</t>
-  </si>
-  <si>
-    <t>(['"'], 8.271729469299316)</t>
-  </si>
-  <si>
-    <t>(['и'], 7.8809356689453125)</t>
-  </si>
-  <si>
-    <t>(['-'], 7.633939266204834)</t>
-  </si>
-  <si>
-    <t>(['в'], 7.519311428070068)</t>
-  </si>
-  <si>
-    <t>(['.'], 6.776651382446289)</t>
-  </si>
-  <si>
-    <t>(['из'], 6.737113952636719)</t>
-  </si>
-  <si>
-    <t>(['среди'], 6.56464958190918)</t>
-  </si>
-  <si>
-    <t>([')'], 6.483536720275879)</t>
-  </si>
-  <si>
-    <t>(['на'], 6.448875904083252)</t>
-  </si>
-  <si>
-    <t>(['3'], 6.446096420288086)</t>
-  </si>
-  <si>
-    <t>(['у'], 6.334989070892334)</t>
-  </si>
-  <si>
-    <t>(['перед'], 6.242401123046875)</t>
-  </si>
-  <si>
-    <t>(['цветов'], 6.026831150054932)</t>
-  </si>
-  <si>
-    <t>(['обр'], 5.974134922027588)</t>
-  </si>
-  <si>
-    <t>(['##иль'], 5.967076301574707)</t>
-  </si>
-  <si>
-    <t>(['композиции'], 5.9373860359191895)</t>
-  </si>
-  <si>
-    <t>(['утвердил'], 5.934245586395264)</t>
-  </si>
-  <si>
-    <t>(['од'], 5.88571834564209)</t>
-  </si>
-  <si>
-    <t>(['##аля'], 5.883876800537109)</t>
-  </si>
-  <si>
-    <t>(['##ль'], 5.869161128997803)</t>
-  </si>
-  <si>
-    <t>(['('], 5.821468353271484)</t>
-  </si>
-  <si>
-    <t>(['перевес'], 5.813956260681152)</t>
-  </si>
-  <si>
-    <t>(['##овой'], 5.797870635986328)</t>
-  </si>
-  <si>
-    <t>(['##риз'], 5.7112932205200195)</t>
-  </si>
-  <si>
-    <t>(['##тю'], 5.656600475311279)</t>
-  </si>
-  <si>
-    <t>(['над'], 5.620312213897705)</t>
-  </si>
-  <si>
-    <t>(['лед'], 5.560770511627197)</t>
-  </si>
-  <si>
-    <t>(['название'], 5.502791881561279)</t>
-  </si>
-  <si>
-    <t>(['конце'], 5.463077068328857)</t>
-  </si>
-  <si>
-    <t>(['##в'], 5.440184593200684)</t>
-  </si>
-  <si>
-    <t>(['##с'], 5.372984409332275)</t>
-  </si>
-  <si>
-    <t>(['«'], 5.363740921020508)</t>
-  </si>
-  <si>
-    <t>(['##енч'], 5.316598415374756)</t>
-  </si>
-  <si>
-    <t>(['под'], 5.293539047241211)</t>
-  </si>
-  <si>
-    <t>(['##овая'], 5.261221885681152)</t>
-  </si>
-  <si>
-    <t>(['##верд'], 5.193495273590088)</t>
-  </si>
-  <si>
-    <t>(['##енцов'], 5.192885398864746)</t>
-  </si>
-  <si>
-    <t>(['##стов'], 5.120019435882568)</t>
-  </si>
-  <si>
-    <t>(['шерсти'], 5.104857444763184)</t>
-  </si>
-  <si>
-    <t>(['первой'], 5.104396343231201)</t>
-  </si>
-  <si>
-    <t>(['между'], 5.073703289031982)</t>
-  </si>
-  <si>
-    <t>(['партии'], 5.064000129699707)</t>
-  </si>
-  <si>
-    <t>(['##чицы'], 5.027383327484131)</t>
-  </si>
-  <si>
-    <t>(['очков'], 5.023125648498535)</t>
-  </si>
-  <si>
-    <t>(['дня'], 5.021599292755127)</t>
-  </si>
-  <si>
-    <t>(['воскресенье'], 4.9994378089904785)</t>
-  </si>
-  <si>
-    <t>(['##ли'], 4.986204624176025)</t>
-  </si>
-  <si>
-    <t>(['2'], 4.984996318817139)</t>
-  </si>
-  <si>
-    <t>(['—'], 4.981849670410156)</t>
-  </si>
-  <si>
-    <t>(['##ля'], 4.977822303771973)</t>
-  </si>
-  <si>
-    <t>(['труда'], 4.956428527832031)</t>
-  </si>
-  <si>
-    <t>([':'], 4.953367710113525)</t>
-  </si>
-  <si>
-    <t>(['июня'], 4.9531474113464355)</t>
-  </si>
-  <si>
-    <t>(['мусульманской'], 4.951251983642578)</t>
-  </si>
-  <si>
-    <t>(['##ов'], 4.94249153137207)</t>
-  </si>
-  <si>
-    <t>(['##очи'], 4.858950138092041)</t>
-  </si>
-  <si>
-    <t>(['##ков'], 4.833282470703125)</t>
-  </si>
-  <si>
-    <t>(['второй'], 4.819852828979492)</t>
-  </si>
-  <si>
-    <t>(['##бе'], 4.7972283363342285)</t>
-  </si>
-  <si>
-    <t>(['светового'], 4.773496150970459)</t>
-  </si>
-  <si>
-    <t>(['не'], 4.763246536254883)</t>
-  </si>
-  <si>
-    <t>(['туль'], 4.745604991912842)</t>
-  </si>
-  <si>
-    <t>(['ус'], 4.7428154945373535)</t>
-  </si>
-  <si>
-    <t>(['##аль'], 4.718946933746338)</t>
-  </si>
-  <si>
-    <t>(['марта'], 4.705904006958008)</t>
-  </si>
-  <si>
-    <t>(['цвета'], 4.698747158050537)</t>
-  </si>
-  <si>
-    <t>(['оперения'], 4.685988903045654)</t>
-  </si>
-  <si>
-    <t>(['печать'], 4.6719584465026855)</t>
-  </si>
-  <si>
-    <t>(['или'], 4.6554999351501465)</t>
-  </si>
-  <si>
-    <t>(['##ft'], 4.642221450805664)</t>
-  </si>
-  <si>
-    <t>(['представителя'], 4.635361194610596)</t>
-  </si>
-  <si>
-    <t>(['певицы'], 4.631008625030518)</t>
-  </si>
-  <si>
-    <t>(['##цвет'], 4.617445468902588)</t>
-  </si>
-  <si>
-    <t>(['22'], 4.6097869873046875)</t>
-  </si>
-  <si>
-    <t>(['третьей'], 4.606400966644287)</t>
-  </si>
-  <si>
-    <t>(['была'], 4.5476884841918945)</t>
-  </si>
-  <si>
-    <t>(['с'], 4.53609561920166)</t>
-  </si>
-  <si>
-    <t>(['п'], 4.499881744384766)</t>
-  </si>
-  <si>
-    <t>(['самой'], 4.4852166175842285)</t>
-  </si>
-  <si>
-    <t>(['##ки'], 4.478372573852539)</t>
-  </si>
-  <si>
-    <t>(['без'], 4.475858211517334)</t>
-  </si>
-  <si>
-    <t>(['рано'], 4.465033054351807)</t>
-  </si>
-  <si>
-    <t>(['этой'], 4.458754539489746)</t>
-  </si>
-  <si>
-    <t>(['лица'], 4.4356160163879395)</t>
-  </si>
-  <si>
-    <t>(['##у'], 4.430048942565918)</t>
-  </si>
-  <si>
-    <t>(['четверг'], 4.429666996002197)</t>
-  </si>
-  <si>
-    <t>(['названия'], 4.420153617858887)</t>
-  </si>
-  <si>
-    <t>(['##уста'], 4.393824100494385)</t>
-  </si>
-  <si>
-    <t>(['время'], 4.378118515014648)</t>
-  </si>
-  <si>
-    <t>(['художественного'], 4.37802267074585)</t>
-  </si>
-  <si>
-    <t>(['слова'], 4.3754401206970215)</t>
-  </si>
-  <si>
-    <t>(['группы'], 4.37109375)</t>
-  </si>
-  <si>
-    <t>(['##чица'], 4.366883277893066)</t>
-  </si>
-  <si>
-    <t>(['##и'], 4.362095832824707)</t>
-  </si>
-  <si>
-    <t>(['носили'], 4.335943222045898)</t>
-  </si>
-  <si>
-    <t>(['более'], 4.331307888031006)</t>
-  </si>
-  <si>
-    <t>(['Sang'], 4.324676036834717)</t>
-  </si>
-  <si>
-    <t>(['фоне'], 4.318456649780273)</t>
-  </si>
-  <si>
-    <t>(['4'], 4.317102432250977)</t>
-  </si>
-  <si>
-    <t>(['во'], 8.911165237426758)</t>
-  </si>
-  <si>
-    <t>(['и'], 8.396885871887207)</t>
-  </si>
-  <si>
-    <t>([','], 7.776644229888916)</t>
-  </si>
-  <si>
-    <t>(['подъ'], 7.104026794433594)</t>
-  </si>
-  <si>
-    <t>(['же'], 6.691307067871094)</t>
-  </si>
-  <si>
-    <t>(['а'], 6.4024553298950195)</t>
-  </si>
-  <si>
-    <t>(['в'], 6.273025035858154)</t>
-  </si>
-  <si>
-    <t>(['при'], 6.215693473815918)</t>
-  </si>
-  <si>
-    <t>(['ко'], 6.154551029205322)</t>
-  </si>
-  <si>
-    <t>(['поле'], 6.104442119598389)</t>
-  </si>
-  <si>
-    <t>(['у'], 5.995555400848389)</t>
-  </si>
-  <si>
-    <t>(['##и'], 5.942882061004639)</t>
-  </si>
-  <si>
-    <t>(['##е'], 5.935129165649414)</t>
-  </si>
-  <si>
-    <t>(['на'], 5.794638633728027)</t>
-  </si>
-  <si>
-    <t>(['то'], 5.49275016784668)</t>
-  </si>
-  <si>
-    <t>(['въ'], 5.402307510375977)</t>
-  </si>
-  <si>
-    <t>(['-'], 5.289076328277588)</t>
-  </si>
-  <si>
-    <t>(['тогда'], 5.280763626098633)</t>
-  </si>
-  <si>
-    <t>(['##ъ'], 5.243621349334717)</t>
-  </si>
-  <si>
-    <t>(['бы'], 5.2319231033325195)</t>
-  </si>
-  <si>
-    <t>(['все'], 5.229520797729492)</t>
-  </si>
-  <si>
-    <t>(['что'], 5.137368679046631)</t>
-  </si>
-  <si>
-    <t>([';'], 5.101756572723389)</t>
-  </si>
-  <si>
-    <t>(['мне'], 5.035943508148193)</t>
-  </si>
-  <si>
-    <t>([':'], 4.943746089935303)</t>
-  </si>
-  <si>
-    <t>(['когда'], 4.939193248748779)</t>
-  </si>
-  <si>
-    <t>(['от'], 4.91689395904541)</t>
-  </si>
-  <si>
-    <t>(['"'], 4.806430816650391)</t>
-  </si>
-  <si>
-    <t>(['под'], 4.803188800811768)</t>
-  </si>
-  <si>
-    <t>(['я'], 4.705319404602051)</t>
-  </si>
-  <si>
-    <t>(['##ѣ'], 4.695085525512695)</t>
-  </si>
-  <si>
-    <t>(['по'], 4.603041648864746)</t>
-  </si>
-  <si>
-    <t>(['о'], 4.584102630615234)</t>
-  </si>
-  <si>
-    <t>(['к'], 4.5197834968566895)</t>
-  </si>
-  <si>
-    <t>(["'"], 4.461038112640381)</t>
-  </si>
-  <si>
-    <t>(['де'], 4.434223175048828)</t>
-  </si>
-  <si>
-    <t>(['время'], 4.387024879455566)</t>
-  </si>
-  <si>
-    <t>(['##аго'], 4.3694024085998535)</t>
-  </si>
-  <si>
-    <t>(['##i'], 4.36672306060791)</t>
-  </si>
-  <si>
-    <t>(['всему'], 4.353025913238525)</t>
-  </si>
-  <si>
-    <t>(['б'], 4.31049108505249)</t>
-  </si>
-  <si>
-    <t>(['##у'], 4.224438190460205)</t>
-  </si>
-  <si>
-    <t>(['там'], 4.134771823883057)</t>
-  </si>
-  <si>
-    <t>(['есть'], 4.092704772949219)</t>
-  </si>
-  <si>
-    <t>(['къ'], 4.0645833015441895)</t>
-  </si>
-  <si>
-    <t>(['или'], 4.048702716827393)</t>
-  </si>
-  <si>
-    <t>(['из'], 4.040192604064941)</t>
-  </si>
-  <si>
-    <t>(['равно'], 4.015387058258057)</t>
-  </si>
-  <si>
-    <t>(['том'], 4.015273094177246)</t>
-  </si>
-  <si>
-    <t>(['всем'], 4.0122575759887695)</t>
-  </si>
-  <si>
-    <t>(['того'], 4.009634494781494)</t>
-  </si>
-  <si>
-    <t>(['да'], 4.007375717163086)</t>
-  </si>
-  <si>
-    <t>(['##а'], 4.000400066375732)</t>
-  </si>
-  <si>
-    <t>(['бо'], 3.9850003719329834)</t>
-  </si>
-  <si>
-    <t>(['так'], 3.9589738845825195)</t>
-  </si>
-  <si>
-    <t>(['как'], 3.9489805698394775)</t>
-  </si>
-  <si>
-    <t>(['подле'], 3.8564133644104004)</t>
-  </si>
-  <si>
-    <t>(['і'], 3.837050437927246)</t>
-  </si>
-  <si>
-    <t>(['—'], 3.8176651000976562)</t>
-  </si>
-  <si>
-    <t>(['##я'], 3.784806251525879)</t>
-  </si>
-  <si>
-    <t>(['си'], 3.756736993789673)</t>
-  </si>
-  <si>
-    <t>(['мы'], 3.7283425331115723)</t>
-  </si>
-  <si>
-    <t>(['где'], 3.7270562648773193)</t>
-  </si>
-  <si>
-    <t>(['также'], 3.693384885787964)</t>
-  </si>
-  <si>
-    <t>(['слова'], 3.6849894523620605)</t>
-  </si>
-  <si>
-    <t>(['сей'], 3.678122043609619)</t>
-  </si>
-  <si>
-    <t>(['свете'], 3.6312389373779297)</t>
-  </si>
-  <si>
-    <t>(['ды'], 3.6206319332122803)</t>
-  </si>
-  <si>
-    <t>(['кроме'], 3.6111366748809814)</t>
-  </si>
-  <si>
-    <t>(['их'], 3.6064791679382324)</t>
-  </si>
-  <si>
-    <t>(['ти'], 3.598738670349121)</t>
-  </si>
-  <si>
-    <t>(['ныне'], 3.5547878742218018)</t>
-  </si>
-  <si>
-    <t>(['##ии'], 3.5424864292144775)</t>
-  </si>
-  <si>
-    <t>(['всех'], 3.540989875793457)</t>
-  </si>
-  <si>
-    <t>(['ве'], 3.5086252689361572)</t>
-  </si>
-  <si>
-    <t>(['##і'], 3.4824423789978027)</t>
-  </si>
-  <si>
-    <t>(['изъ'], 3.4482924938201904)</t>
-  </si>
-  <si>
-    <t>(['яко'], 3.444992780685425)</t>
-  </si>
-  <si>
-    <t>(['доме'], 3.411939859390259)</t>
-  </si>
-  <si>
-    <t>(['между'], 3.411072015762329)</t>
-  </si>
-  <si>
-    <t>(['нас'], 3.395792245864868)</t>
-  </si>
-  <si>
-    <t>(['тому'], 3.3955883979797363)</t>
-  </si>
-  <si>
-    <t>(['Во'], 3.381089925765991)</t>
-  </si>
-  <si>
-    <t>(['од'], 3.372671365737915)</t>
-  </si>
-  <si>
-    <t>(['месте'], 3.3659982681274414)</t>
-  </si>
-  <si>
-    <t>(['до'], 3.364551067352295)</t>
-  </si>
-  <si>
-    <t>(['начале'], 3.358036518096924)</t>
-  </si>
-  <si>
-    <t>(['##ся'], 3.319971799850464)</t>
-  </si>
-  <si>
-    <t>(['для'], 3.3143105506896973)</t>
-  </si>
-  <si>
-    <t>(['Дону'], 3.2761402130126953)</t>
-  </si>
-  <si>
-    <t>(['е'], 3.275589942932129)</t>
-  </si>
-  <si>
-    <t>(['земле'], 3.270216703414917)</t>
-  </si>
-  <si>
-    <t>(['##ь'], 3.2625393867492676)</t>
-  </si>
-  <si>
-    <t>(['вы'], 3.2512989044189453)</t>
-  </si>
-  <si>
-    <t>([')'], 3.250328540802002)</t>
-  </si>
-  <si>
-    <t>(['но'], 3.2343716621398926)</t>
-  </si>
-  <si>
-    <t>(['уезде'], 3.2038655281066895)</t>
-  </si>
-  <si>
-    <t>(['руку'], 3.1774418354034424)</t>
-  </si>
-  <si>
-    <t>(['##ю'], 3.1647472381591797)</t>
-  </si>
-  <si>
-    <t>(['сего'], 3.1558542251586914)</t>
-  </si>
-  <si>
-    <t>(['и'], 9.119553565979004)</t>
-  </si>
-  <si>
-    <t>([':'], 8.229436874389648)</t>
-  </si>
-  <si>
-    <t>(['.'], 7.6114630699157715)</t>
-  </si>
-  <si>
-    <t>(['-'], 7.36685037612915)</t>
-  </si>
-  <si>
-    <t>([','], 7.325893878936768)</t>
-  </si>
-  <si>
-    <t>(['"'], 7.2969160079956055)</t>
-  </si>
-  <si>
-    <t>(['##ю'], 7.081750869750977)</t>
-  </si>
-  <si>
-    <t>(['##у'], 7.073983192443848)</t>
-  </si>
-  <si>
-    <t>(['##о'], 7.048745155334473)</t>
-  </si>
-  <si>
-    <t>(['ир'], 6.730796813964844)</t>
-  </si>
-  <si>
-    <t>(['Николаю'], 6.343390464782715)</t>
-  </si>
-  <si>
-    <t>(['России'], 6.21760368347168)</t>
-  </si>
-  <si>
-    <t>(['всему'], 6.123093605041504)</t>
-  </si>
-  <si>
-    <t>(['изъ'], 6.103115081787109)</t>
-  </si>
-  <si>
-    <t>(['##и'], 6.030167579650879)</t>
-  </si>
-  <si>
-    <t>(['в'], 6.0272626876831055)</t>
-  </si>
-  <si>
-    <t>(['##скому'], 5.937325477600098)</t>
-  </si>
-  <si>
-    <t>(["'"], 5.849077224731445)</t>
-  </si>
-  <si>
-    <t>(['##ѣ'], 5.80535364151001)</t>
-  </si>
-  <si>
-    <t>(['на'], 5.724864482879639)</t>
-  </si>
-  <si>
-    <t>(['##е'], 5.689205646514893)</t>
-  </si>
-  <si>
-    <t>(['##ку'], 5.68610143661499)</t>
-  </si>
-  <si>
-    <t>(['##ски'], 5.506069183349609)</t>
-  </si>
-  <si>
-    <t>([')'], 5.463440895080566)</t>
-  </si>
-  <si>
-    <t>(['дик'], 5.399263858795166)</t>
-  </si>
-  <si>
-    <t>(['##цу'], 5.336082935333252)</t>
-  </si>
-  <si>
-    <t>(['Всем'], 5.293888568878174)</t>
-  </si>
-  <si>
-    <t>(['все'], 5.275578498840332)</t>
-  </si>
-  <si>
-    <t>(['о'], 5.262035846710205)</t>
-  </si>
-  <si>
-    <t>(['часть'], 5.228232383728027)</t>
-  </si>
-  <si>
-    <t>(['Америке'], 5.206129550933838)</t>
-  </si>
-  <si>
-    <t>(['##ею'], 5.205864429473877)</t>
-  </si>
-  <si>
-    <t>(['нам'], 5.099485874176025)</t>
-  </si>
-  <si>
-    <t>(['также'], 5.084299564361572)</t>
-  </si>
-  <si>
-    <t>([';'], 5.04587984085083)</t>
-  </si>
-  <si>
-    <t>(['виде'], 5.038320064544678)</t>
-  </si>
-  <si>
-    <t>(['из'], 5.016244411468506)</t>
-  </si>
-  <si>
-    <t>(['есть'], 4.965511322021484)</t>
-  </si>
-  <si>
-    <t>(['Лев'], 4.946262836456299)</t>
-  </si>
-  <si>
-    <t>(['её'], 4.933119773864746)</t>
-  </si>
-  <si>
-    <t>(['##і'], 4.923136234283447)</t>
-  </si>
-  <si>
-    <t>(['##ному'], 4.913280963897705)</t>
-  </si>
-  <si>
-    <t>(['##ь'], 4.900284767150879)</t>
-  </si>
-  <si>
-    <t>(['языки'], 4.889042854309082)</t>
-  </si>
-  <si>
-    <t>(['его'], 4.8888139724731445)</t>
-  </si>
-  <si>
-    <t>(['всем'], 4.8445024490356445)</t>
-  </si>
-  <si>
-    <t>(['знак'], 4.821571350097656)</t>
-  </si>
-  <si>
-    <t>(['или'], 4.819601535797119)</t>
-  </si>
-  <si>
-    <t>(['##ія'], 4.809176921844482)</t>
-  </si>
-  <si>
-    <t>(['2'], 4.799221038818359)</t>
-  </si>
-  <si>
-    <t>(['Льву'], 4.793824195861816)</t>
-  </si>
-  <si>
-    <t>(['Изв'], 4.779217720031738)</t>
-  </si>
-  <si>
-    <t>(['острову'], 4.773840427398682)</t>
-  </si>
-  <si>
-    <t>(['российскому'], 4.771020412445068)</t>
-  </si>
-  <si>
-    <t>(['слова'], 4.715053081512451)</t>
-  </si>
-  <si>
-    <t>(['('], 4.714926719665527)</t>
-  </si>
-  <si>
-    <t>(['—'], 4.694309711456299)</t>
-  </si>
-  <si>
-    <t>(['##асу'], 4.69268798828125)</t>
-  </si>
-  <si>
-    <t>(['западным'], 4.676455974578857)</t>
-  </si>
-  <si>
-    <t>(['книгу'], 4.655999183654785)</t>
-  </si>
-  <si>
-    <t>(['##а'], 4.652534484863281)</t>
-  </si>
-  <si>
-    <t>(['как'], 4.642795085906982)</t>
-  </si>
-  <si>
-    <t>(['ему'], 4.617521286010742)</t>
-  </si>
-  <si>
-    <t>(['##ицу'], 4.616243362426758)</t>
-  </si>
-  <si>
-    <t>(['дву'], 4.598077774047852)</t>
-  </si>
-  <si>
-    <t>(['##еру'], 4.5853118896484375)</t>
-  </si>
-  <si>
-    <t>(['ее'], 4.584732532501221)</t>
-  </si>
-  <si>
-    <t>(['##я'], 4.547793388366699)</t>
-  </si>
-  <si>
-    <t>(['краю'], 4.536492824554443)</t>
-  </si>
-  <si>
-    <t>(['дикой'], 4.5208258628845215)</t>
-  </si>
-  <si>
-    <t>(['виду'], 4.49873161315918)</t>
-  </si>
-  <si>
-    <t>(['ей'], 4.494995594024658)</t>
-  </si>
-  <si>
-    <t>(['части'], 4.473448753356934)</t>
-  </si>
-  <si>
-    <t>(['Цзю'], 4.460244178771973)</t>
-  </si>
-  <si>
-    <t>(['##ому'], 4.422569274902344)</t>
-  </si>
-  <si>
-    <t>(['фу'], 4.421663284301758)</t>
-  </si>
-  <si>
-    <t>(['##ову'], 4.4156270027160645)</t>
-  </si>
-  <si>
-    <t>(['Сибири'], 4.402891635894775)</t>
-  </si>
-  <si>
-    <t>(['Дракона'], 4.395752906799316)</t>
-  </si>
-  <si>
-    <t>(['##ию'], 4.388803482055664)</t>
-  </si>
-  <si>
-    <t>(['##ву'], 4.384998321533203)</t>
-  </si>
-  <si>
-    <t>(['равно'], 4.3741888999938965)</t>
-  </si>
-  <si>
-    <t>(['##ющему'], 4.373707294464111)</t>
-  </si>
-  <si>
-    <t>(['##ке'], 4.346805095672607)</t>
-  </si>
-  <si>
-    <t>(['##ъ'], 4.333995342254639)</t>
-  </si>
-  <si>
-    <t>(['что'], 4.326025485992432)</t>
-  </si>
-  <si>
-    <t>(['##ари'], 4.325965881347656)</t>
-  </si>
-  <si>
-    <t>(['##ерсу'], 4.27644681930542)</t>
-  </si>
-  <si>
-    <t>(['их'], 4.269529819488525)</t>
-  </si>
-  <si>
-    <t>(['миру'], 4.257411956787109)</t>
-  </si>
-  <si>
-    <t>(['##ица'], 4.2508697509765625)</t>
-  </si>
-  <si>
-    <t>(['к'], 4.250147342681885)</t>
-  </si>
-  <si>
-    <t>(['книги'], 4.25001335144043)</t>
-  </si>
-  <si>
-    <t>(['##му'], 4.1793012619018555)</t>
-  </si>
-  <si>
-    <t>(['образцы'], 4.178387641906738)</t>
-  </si>
-  <si>
-    <t>(['Карлу'], 4.162958145141602)</t>
-  </si>
-  <si>
-    <t>(['императору'], 4.15345573425293)</t>
-  </si>
-  <si>
-    <t>(['Российскому'], 4.138814926147461)</t>
-  </si>
-  <si>
-    <t>(['цветок'], 4.130831241607666)</t>
-  </si>
-  <si>
-    <t>(['был'], 4.117537975311279)</t>
-  </si>
-  <si>
-    <t>([':'], 6.988048076629639)</t>
-  </si>
-  <si>
-    <t>(['и'], 6.408949851989746)</t>
-  </si>
-  <si>
-    <t>(['меч'], 6.369523525238037)</t>
-  </si>
-  <si>
-    <t>([','], 6.316679000854492)</t>
-  </si>
-  <si>
-    <t>(['"'], 5.682104110717773)</t>
-  </si>
-  <si>
-    <t>(['2'], 5.058854103088379)</t>
-  </si>
-  <si>
-    <t>(['в'], 5.0223894119262695)</t>
-  </si>
-  <si>
-    <t>(['4'], 4.993038177490234)</t>
-  </si>
-  <si>
-    <t>(['.'], 4.754748344421387)</t>
-  </si>
-  <si>
-    <t>(['20'], 4.6194939613342285)</t>
-  </si>
-  <si>
-    <t>(['5'], 4.4343109130859375)</t>
-  </si>
-  <si>
-    <t>(['3'], 4.396550178527832)</t>
-  </si>
-  <si>
-    <t>(['все'], 4.104589939117432)</t>
-  </si>
-  <si>
-    <t>(['I'], 4.054354667663574)</t>
-  </si>
-  <si>
-    <t>(['из'], 4.039699077606201)</t>
-  </si>
-  <si>
-    <t>(['следующие'], 3.7656803131103516)</t>
-  </si>
-  <si>
-    <t>(['II'], 3.697849988937378)</t>
-  </si>
-  <si>
-    <t>(['10'], 3.6896233558654785)</t>
-  </si>
-  <si>
-    <t>(['1'], 3.6739487648010254)</t>
-  </si>
-  <si>
-    <t>(['на'], 3.661567449569702)</t>
-  </si>
-  <si>
-    <t>(['-'], 3.6366326808929443)</t>
-  </si>
-  <si>
-    <t>(['также'], 3.533473014831543)</t>
-  </si>
-  <si>
-    <t>(['два'], 3.449716567993164)</t>
-  </si>
-  <si>
-    <t>(['первый'], 3.336293935775757)</t>
-  </si>
-  <si>
-    <t>(['красный'], 3.3345155715942383)</t>
-  </si>
-  <si>
-    <t>(['14'], 3.2690837383270264)</t>
-  </si>
-  <si>
-    <t>(['21'], 3.2681639194488525)</t>
-  </si>
-  <si>
-    <t>(['я'], 3.237853765487671)</t>
-  </si>
-  <si>
-    <t>(['22'], 3.1322221755981445)</t>
-  </si>
-  <si>
-    <t>(['пять'], 3.125007390975952)</t>
-  </si>
-  <si>
-    <t>(['как'], 3.1236655712127686)</t>
-  </si>
-  <si>
-    <t>(['второй'], 3.0972793102264404)</t>
-  </si>
-  <si>
-    <t>(['('], 3.0449488162994385)</t>
-  </si>
-  <si>
-    <t>(['один'], 3.0444984436035156)</t>
-  </si>
-  <si>
-    <t>(['Азербайджан'], 3.0356810092926025)</t>
-  </si>
-  <si>
-    <t>(['три'], 2.996222496032715)</t>
-  </si>
-  <si>
-    <t>(['был'], 2.947791576385498)</t>
-  </si>
-  <si>
-    <t>(['Ирак'], 2.9355101585388184)</t>
-  </si>
-  <si>
-    <t>(['некоторые'], 2.874708414077759)</t>
-  </si>
-  <si>
-    <t>(['30'], 2.854827880859375)</t>
-  </si>
-  <si>
-    <t>(['две'], 2.849799871444702)</t>
-  </si>
-  <si>
-    <t>(['6'], 2.842869758605957)</t>
-  </si>
-  <si>
-    <t>(['образцы'], 2.8217852115631104)</t>
-  </si>
-  <si>
-    <t>(['меча'], 2.8161849975585938)</t>
-  </si>
-  <si>
-    <t>(['7'], 2.7614309787750244)</t>
-  </si>
-  <si>
-    <t>(['надпись'], 2.7576589584350586)</t>
-  </si>
-  <si>
-    <t>(['так'], 2.7471208572387695)</t>
-  </si>
-  <si>
-    <t>(['четыре'], 2.711902379989624)</t>
-  </si>
-  <si>
-    <t>(['X'], 2.6880438327789307)</t>
-  </si>
-  <si>
-    <t>(['19'], 2.6811366081237793)</t>
-  </si>
-  <si>
-    <t>(['орден'], 2.6773183345794678)</t>
-  </si>
-  <si>
-    <t>(['мечи'], 2.647449016571045)</t>
-  </si>
-  <si>
-    <t>(['следующий'], 2.6265244483947754)</t>
-  </si>
-  <si>
-    <t>(['28'], 2.6189777851104736)</t>
-  </si>
-  <si>
-    <t>(['их'], 2.595676898956299)</t>
-  </si>
-  <si>
-    <t>(['слова'], 2.5949769020080566)</t>
-  </si>
-  <si>
-    <t>(['Николай'], 2.5819664001464844)</t>
-  </si>
-  <si>
-    <t>(['—'], 2.58091139793396)</t>
-  </si>
-  <si>
-    <t>(['дату'], 2.578942060470581)</t>
-  </si>
-  <si>
-    <t>(['он'], 2.5773050785064697)</t>
-  </si>
-  <si>
-    <t>(['весь'], 2.553689956665039)</t>
-  </si>
-  <si>
-    <t>(['этот'], 2.5388336181640625)</t>
-  </si>
-  <si>
-    <t>(['свет'], 2.5310726165771484)</t>
-  </si>
-  <si>
-    <t>(['V'], 2.5279603004455566)</t>
-  </si>
-  <si>
-    <t>(['##у'], 2.5160818099975586)</t>
-  </si>
-  <si>
-    <t>(['у'], 2.512258529663086)</t>
-  </si>
-  <si>
-    <t>(['Китай'], 2.487168073654175)</t>
-  </si>
-  <si>
-    <t>(['29'], 2.48529314994812)</t>
-  </si>
-  <si>
-    <t>(['что'], 2.472429037094116)</t>
-  </si>
-  <si>
-    <t>(['свои'], 2.4699833393096924)</t>
-  </si>
-  <si>
-    <t>(['«'], 2.4603488445281982)</t>
-  </si>
-  <si>
-    <t>(['другие'], 2.445423126220703)</t>
-  </si>
-  <si>
-    <t>(['всех'], 2.431225538253784)</t>
-  </si>
-  <si>
-    <t>(['ХХ'], 2.419956922531128)</t>
-  </si>
-  <si>
-    <t>(['Драго'], 2.399017572402954)</t>
-  </si>
-  <si>
-    <t>(['мне'], 2.397616386413574)</t>
-  </si>
-  <si>
-    <t>(['музей'], 2.397123098373413)</t>
-  </si>
-  <si>
-    <t>(['знак'], 2.3707287311553955)</t>
-  </si>
-  <si>
-    <t>(['свой'], 2.361962080001831)</t>
-  </si>
-  <si>
-    <t>(['китайский'], 2.3569159507751465)</t>
-  </si>
-  <si>
-    <t>(['императору'], 2.3417768478393555)</t>
-  </si>
-  <si>
-    <t>(['самый'], 2.3322482109069824)</t>
-  </si>
-  <si>
-    <t>(['только'], 2.3155035972595215)</t>
-  </si>
-  <si>
-    <t>([')'], 2.2982447147369385)</t>
-  </si>
-  <si>
-    <t>(['15'], 2.2953741550445557)</t>
-  </si>
-  <si>
-    <t>(['великий'], 2.2868757247924805)</t>
-  </si>
-  <si>
-    <t>(['12'], 2.2813735008239746)</t>
-  </si>
-  <si>
-    <t>(['о'], 2.2784245014190674)</t>
-  </si>
-  <si>
-    <t>(['Болгарский'], 2.269758939743042)</t>
-  </si>
-  <si>
-    <t>(['Ван'], 2.2489521503448486)</t>
-  </si>
-  <si>
-    <t>(['самые'], 2.2275893688201904)</t>
-  </si>
-  <si>
-    <t>(['им'], 2.2168989181518555)</t>
-  </si>
-  <si>
-    <t>(['9'], 2.2131948471069336)</t>
-  </si>
-  <si>
-    <t>(['по'], 2.176682710647583)</t>
-  </si>
-  <si>
-    <t>(['несколько'], 2.1710526943206787)</t>
-  </si>
-  <si>
-    <t>(['были'], 2.163851261138916)</t>
-  </si>
-  <si>
-    <t>(['национальный'], 2.1442041397094727)</t>
-  </si>
-  <si>
-    <t>(['мира'], 2.1105868816375732)</t>
-  </si>
-  <si>
-    <t>(['с'], 2.0925230979919434)</t>
-  </si>
-  <si>
-    <t>(['да'], 2.091857433319092)</t>
-  </si>
-  <si>
-    <t>([':'], 7.421934604644775)</t>
-  </si>
-  <si>
-    <t>(['##сы'], 7.308320999145508)</t>
-  </si>
-  <si>
-    <t>(['и'], 6.720880508422852)</t>
-  </si>
-  <si>
-    <t>(['##я'], 6.687497138977051)</t>
-  </si>
-  <si>
-    <t>(['следующие'], 6.36300802230835)</t>
-  </si>
-  <si>
-    <t>(['##ла'], 6.313297748565674)</t>
-  </si>
-  <si>
-    <t>(['в'], 6.248810768127441)</t>
-  </si>
-  <si>
-    <t>(['##й'], 6.229050636291504)</t>
-  </si>
-  <si>
-    <t>(['##е'], 6.210644245147705)</t>
-  </si>
-  <si>
-    <t>(['##и'], 6.0464630126953125)</t>
-  </si>
-  <si>
-    <t>(['все'], 5.846476078033447)</t>
-  </si>
-  <si>
-    <t>([','], 5.828456401824951)</t>
-  </si>
-  <si>
-    <t>(['##ы'], 5.73219633102417)</t>
-  </si>
-  <si>
-    <t>(['##лы'], 5.682635307312012)</t>
-  </si>
-  <si>
-    <t>(['из'], 5.649954319000244)</t>
-  </si>
-  <si>
-    <t>(['##х'], 5.628494739532471)</t>
-  </si>
-  <si>
-    <t>(['##с'], 5.569043159484863)</t>
-  </si>
-  <si>
-    <t>(['греки'], 5.552813529968262)</t>
-  </si>
-  <si>
-    <t>(['.'], 5.4577531814575195)</t>
-  </si>
-  <si>
-    <t>(['##сти'], 5.409112453460693)</t>
-  </si>
-  <si>
-    <t>(['"'], 5.300010681152344)</t>
-  </si>
-  <si>
-    <t>(['##еся'], 5.266987323760986)</t>
-  </si>
-  <si>
-    <t>(['##ли'], 5.2273712158203125)</t>
-  </si>
-  <si>
-    <t>(['('], 5.152783393859863)</t>
-  </si>
-  <si>
-    <t>(['греческие'], 5.142238616943359)</t>
-  </si>
-  <si>
-    <t>(['##л'], 5.141271591186523)</t>
-  </si>
-  <si>
-    <t>(['числа'], 5.130342483520508)</t>
-  </si>
-  <si>
-    <t>(['##ые'], 5.116516590118408)</t>
-  </si>
-  <si>
-    <t>(['##ия'], 5.097102642059326)</t>
-  </si>
-  <si>
-    <t>(['##ся'], 4.999995708465576)</t>
-  </si>
-  <si>
-    <t>(['##м'], 4.997856616973877)</t>
-  </si>
-  <si>
-    <t>(['##усы'], 4.996950626373291)</t>
-  </si>
-  <si>
-    <t>(['##шие'], 4.981776714324951)</t>
-  </si>
-  <si>
-    <t>(['##ми'], 4.950454235076904)</t>
-  </si>
-  <si>
-    <t>(['##кла'], 4.880708694458008)</t>
-  </si>
-  <si>
-    <t>(['греческий'], 4.83351993560791)</t>
-  </si>
-  <si>
-    <t>(['##ки'], 4.800983905792236)</t>
-  </si>
-  <si>
-    <t>(['##ие'], 4.795267105102539)</t>
-  </si>
-  <si>
-    <t>(['##ть'], 4.793022632598877)</t>
-  </si>
-  <si>
-    <t>(['##в'], 4.782083511352539)</t>
-  </si>
-  <si>
-    <t>(['как'], 4.765832901000977)</t>
-  </si>
-  <si>
-    <t>(['у'], 4.731078147888184)</t>
-  </si>
-  <si>
-    <t>(['число'], 4.69426965713501)</t>
-  </si>
-  <si>
-    <t>(['виды'], 4.686491966247559)</t>
-  </si>
-  <si>
-    <t>(['слова'], 4.640916347503662)</t>
-  </si>
-  <si>
-    <t>(['##ти'], 4.455535888671875)</t>
-  </si>
-  <si>
-    <t>(['языки'], 4.409161567687988)</t>
-  </si>
-  <si>
-    <t>(['святые'], 4.390102386474609)</t>
-  </si>
-  <si>
-    <t>(['-'], 4.339317321777344)</t>
-  </si>
-  <si>
-    <t>(['##льные'], 4.269467830657959)</t>
-  </si>
-  <si>
-    <t>(['В'], 4.264904975891113)</t>
-  </si>
-  <si>
-    <t>(['цвета'], 4.217978000640869)</t>
-  </si>
-  <si>
-    <t>(['степени'], 4.2087602615356445)</t>
-  </si>
-  <si>
-    <t>(['Кирилл'], 4.208095073699951)</t>
-  </si>
-  <si>
-    <t>(['которые'], 4.189174652099609)</t>
-  </si>
-  <si>
-    <t>(['такие'], 4.157411575317383)</t>
-  </si>
-  <si>
-    <t>(['##ты'], 4.139720439910889)</t>
-  </si>
-  <si>
-    <t>(['##льный'], 4.115289688110352)</t>
-  </si>
-  <si>
-    <t>(['к'], 4.095129489898682)</t>
-  </si>
-  <si>
-    <t>(['эти'], 4.083286285400391)</t>
-  </si>
-  <si>
-    <t>(['или'], 4.048245429992676)</t>
-  </si>
-  <si>
-    <t>(['они'], 4.038663387298584)</t>
-  </si>
-  <si>
-    <t>(['##цы'], 4.0155415534973145)</t>
-  </si>
-  <si>
-    <t>(['с'], 4.0019121170043945)</t>
-  </si>
-  <si>
-    <t>(['##ные'], 3.937041759490967)</t>
-  </si>
-  <si>
-    <t>(['е'], 3.9363107681274414)</t>
-  </si>
-  <si>
-    <t>(['ист'], 3.886363983154297)</t>
-  </si>
-  <si>
-    <t>(['##мы'], 3.876512289047241)</t>
-  </si>
-  <si>
-    <t>(['для'], 3.87235689163208)</t>
-  </si>
-  <si>
-    <t>(['две'], 3.858586549758911)</t>
-  </si>
-  <si>
-    <t>(['красоты'], 3.8532066345214844)</t>
-  </si>
-  <si>
-    <t>(['##щие'], 3.8393115997314453)</t>
-  </si>
-  <si>
-    <t>([';'], 3.8103179931640625)</t>
-  </si>
-  <si>
-    <t>(['##т'], 3.8071537017822266)</t>
-  </si>
-  <si>
-    <t>(['нос'], 3.806342840194702)</t>
-  </si>
-  <si>
-    <t>(['##са'], 3.8020589351654053)</t>
-  </si>
-  <si>
-    <t>(['черные'], 3.7777512073516846)</t>
-  </si>
-  <si>
-    <t>(['##го'], 3.772852659225464)</t>
-  </si>
-  <si>
-    <t>(['##ии'], 3.7644128799438477)</t>
-  </si>
-  <si>
-    <t>(['##ую'], 3.763120412826538)</t>
-  </si>
-  <si>
-    <t>(['Все'], 3.7608642578125)</t>
-  </si>
-  <si>
-    <t>(['##а'], 3.740863084793091)</t>
-  </si>
-  <si>
-    <t>(['четыре'], 3.7391505241394043)</t>
-  </si>
-  <si>
-    <t>(['на'], 3.724332094192505)</t>
-  </si>
-  <si>
-    <t>(['корни'], 3.705399990081787)</t>
-  </si>
-  <si>
-    <t>(['вида'], 3.6976876258850098)</t>
-  </si>
-  <si>
-    <t>(['греческая'], 3.6799371242523193)</t>
-  </si>
-  <si>
-    <t>(['некоторые'], 3.6782491207122803)</t>
-  </si>
-  <si>
-    <t>(['род'], 3.6460673809051514)</t>
-  </si>
-  <si>
-    <t>([')'], 3.6424262523651123)</t>
-  </si>
-  <si>
-    <t>(['три'], 3.6374351978302)</t>
-  </si>
-  <si>
-    <t>(['до'], 3.594733715057373)</t>
-  </si>
-  <si>
-    <t>(['самые'], 3.584094285964966)</t>
-  </si>
-  <si>
-    <t>(['те'], 3.5747833251953125)</t>
-  </si>
-  <si>
-    <t>(['##сов'], 3.5730788707733154)</t>
-  </si>
-  <si>
-    <t>(['выражения'], 3.5726263523101807)</t>
-  </si>
-  <si>
-    <t>(['##y'], 3.546713352203369)</t>
-  </si>
-  <si>
-    <t>(['золотые'], 3.5419185161590576)</t>
-  </si>
-  <si>
-    <t>(['формы'], 3.5304465293884277)</t>
-  </si>
-  <si>
-    <t>(['элементы'], 3.5241634845733643)</t>
-  </si>
-  <si>
-    <t>(['##и'], 6.716040134429932)</t>
-  </si>
-  <si>
-    <t>(['и'], 6.478158473968506)</t>
-  </si>
-  <si>
-    <t>([','], 6.43660306930542)</t>
-  </si>
-  <si>
-    <t>(['слова'], 5.852490425109863)</t>
-  </si>
-  <si>
-    <t>(['в'], 5.818667888641357)</t>
-  </si>
-  <si>
-    <t>(['из'], 5.705771446228027)</t>
-  </si>
-  <si>
-    <t>(['##ы'], 5.511968612670898)</t>
-  </si>
-  <si>
-    <t>(['сем'], 5.43047571182251)</t>
-  </si>
-  <si>
-    <t>(['гор'], 5.415562629699707)</t>
-  </si>
-  <si>
-    <t>(['пол'], 5.3472723960876465)</t>
-  </si>
-  <si>
-    <t>(['##ныя'], 5.002458095550537)</t>
-  </si>
-  <si>
-    <t>(['две'], 4.819103717803955)</t>
-  </si>
-  <si>
-    <t>(['##я'], 4.788516044616699)</t>
-  </si>
-  <si>
-    <t>(['вон'], 4.759648323059082)</t>
-  </si>
-  <si>
-    <t>(['##ны'], 4.754024505615234)</t>
-  </si>
-  <si>
-    <t>(['числа'], 4.744918346405029)</t>
-  </si>
-  <si>
-    <t>(['языки'], 4.741294860839844)</t>
-  </si>
-  <si>
-    <t>(['лет'], 4.716981887817383)</t>
-  </si>
-  <si>
-    <t>(['их'], 4.711559295654297)</t>
-  </si>
-  <si>
-    <t>(['части'], 4.647325038909912)</t>
-  </si>
-  <si>
-    <t>(['пер'], 4.561267375946045)</t>
-  </si>
-  <si>
-    <t>(['дни'], 4.490118026733398)</t>
-  </si>
-  <si>
-    <t>(['все'], 4.486269950866699)</t>
-  </si>
-  <si>
-    <t>(['были'], 4.440352916717529)</t>
-  </si>
-  <si>
-    <t>(['ж'], 4.4033379554748535)</t>
-  </si>
-  <si>
-    <t>(['они'], 4.362405300140381)</t>
-  </si>
-  <si>
-    <t>(['три'], 4.357992172241211)</t>
-  </si>
-  <si>
-    <t>(['##е'], 4.3545026779174805)</t>
-  </si>
-  <si>
-    <t>(['вещества'], 4.343804836273193)</t>
-  </si>
-  <si>
-    <t>(['на'], 4.342828750610352)</t>
-  </si>
-  <si>
-    <t>(['два'], 4.305647373199463)</t>
-  </si>
-  <si>
-    <t>(['кислоты'], 4.294493675231934)</t>
-  </si>
-  <si>
-    <t>(['с'], 4.2250213623046875)</t>
-  </si>
-  <si>
-    <t>(['##i'], 4.210771560668945)</t>
-  </si>
-  <si>
-    <t>(['##і'], 4.209319114685059)</t>
-  </si>
-  <si>
-    <t>(['виды'], 4.176133155822754)</t>
-  </si>
-  <si>
-    <t>(['люди'], 4.159258842468262)</t>
-  </si>
-  <si>
-    <t>(['##ь'], 4.127776145935059)</t>
-  </si>
-  <si>
-    <t>(['пять'], 4.077706336975098)</t>
-  </si>
-  <si>
-    <t>(['##ты'], 4.076478958129883)</t>
-  </si>
-  <si>
-    <t>(['##ъ'], 4.0717644691467285)</t>
-  </si>
-  <si>
-    <t>(['перст'], 4.0674333572387695)</t>
-  </si>
-  <si>
-    <t>(['##ся'], 4.059964656829834)</t>
-  </si>
-  <si>
-    <t>(['вес'], 4.059044361114502)</t>
-  </si>
-  <si>
-    <t>(['въ'], 4.034172058105469)</t>
-  </si>
-  <si>
-    <t>(['от'], 3.9385180473327637)</t>
-  </si>
-  <si>
-    <t>(['названия'], 3.938364267349243)</t>
-  </si>
-  <si>
-    <t>(['изъ'], 3.9346954822540283)</t>
-  </si>
-  <si>
-    <t>(['основания'], 3.933868408203125)</t>
-  </si>
-  <si>
-    <t>(['.'], 3.9139668941497803)</t>
-  </si>
-  <si>
-    <t>(['ы'], 3.912595272064209)</t>
-  </si>
-  <si>
-    <t>(['последние'], 3.8964812755584717)</t>
-  </si>
-  <si>
-    <t>(['##ю'], 3.893697738647461)</t>
-  </si>
-  <si>
-    <t>(['2'], 3.8859946727752686)</t>
-  </si>
-  <si>
-    <t>(['слободы'], 3.8822460174560547)</t>
-  </si>
-  <si>
-    <t>(['во'], 3.8807191848754883)</t>
-  </si>
-  <si>
-    <t>(['места'], 3.8769752979278564)</t>
-  </si>
-  <si>
-    <t>(['времена'], 3.874788284301758)</t>
-  </si>
-  <si>
-    <t>(['слове'], 3.8632864952087402)</t>
-  </si>
-  <si>
-    <t>(['часть'], 3.8601996898651123)</t>
-  </si>
-  <si>
-    <t>(['величины'], 3.835878849029541)</t>
-  </si>
-  <si>
-    <t>(['же'], 3.8149008750915527)</t>
-  </si>
-  <si>
-    <t>(['полов'], 3.798447608947754)</t>
-  </si>
-  <si>
-    <t>(['века'], 3.7898244857788086)</t>
-  </si>
-  <si>
-    <t>(["'"], 3.780726432800293)</t>
-  </si>
-  <si>
-    <t>(['поч'], 3.778629779815674)</t>
-  </si>
-  <si>
-    <t>(['і'], 3.7725234031677246)</t>
-  </si>
-  <si>
-    <t>(['##ии'], 3.7663302421569824)</t>
-  </si>
-  <si>
-    <t>(['х'], 3.7606215476989746)</t>
-  </si>
-  <si>
-    <t>(['некоторые'], 3.749616861343384)</t>
-  </si>
-  <si>
-    <t>(['##ие'], 3.7467732429504395)</t>
-  </si>
-  <si>
-    <t>(['времен'], 3.729976177215576)</t>
-  </si>
-  <si>
-    <t>(['слаб'], 3.724435567855835)</t>
-  </si>
-  <si>
-    <t>(['города'], 3.719597101211548)</t>
-  </si>
-  <si>
-    <t>(['число'], 3.709641456604004)</t>
-  </si>
-  <si>
-    <t>(['##х'], 3.696842908859253)</t>
-  </si>
-  <si>
-    <t>(['##ки'], 3.644960641860962)</t>
-  </si>
-  <si>
-    <t>(['породы'], 3.6420159339904785)</t>
-  </si>
-  <si>
-    <t>(['пач'], 3.638070583343506)</t>
-  </si>
-  <si>
-    <t>(['как'], 3.6350882053375244)</t>
-  </si>
-  <si>
-    <t>([':'], 3.598316192626953)</t>
-  </si>
-  <si>
-    <t>(['горы'], 3.590808868408203)</t>
-  </si>
-  <si>
-    <t>(['время'], 3.5778870582580566)</t>
-  </si>
-  <si>
-    <t>(['з'], 3.562077045440674)</t>
-  </si>
-  <si>
-    <t>(['разные'], 3.540335178375244)</t>
-  </si>
-  <si>
-    <t>(['греки'], 3.496530532836914)</t>
-  </si>
-  <si>
-    <t>(['дан'], 3.4913763999938965)</t>
-  </si>
-  <si>
-    <t>(['##ѣ'], 3.4856550693511963)</t>
-  </si>
-  <si>
-    <t>(['век'], 3.4734134674072266)</t>
-  </si>
-  <si>
-    <t>(['заводы'], 3.465451717376709)</t>
-  </si>
-  <si>
-    <t>(['народы'], 3.455410957336426)</t>
-  </si>
-  <si>
-    <t>(['"'], 3.452854633331299)</t>
-  </si>
-  <si>
-    <t>(['##щие'], 3.4482874870300293)</t>
-  </si>
-  <si>
-    <t>(['тела'], 3.440436601638794)</t>
-  </si>
-  <si>
-    <t>(['##енны'], 3.4312429428100586)</t>
-  </si>
-  <si>
-    <t>(['свету'], 3.4247913360595703)</t>
-  </si>
-  <si>
-    <t>(['ест'], 3.422783851623535)</t>
-  </si>
-  <si>
-    <t>(['##І'], 3.4180190563201904)</t>
-  </si>
-  <si>
-    <t>(['те'], 3.4042019844055176)</t>
-  </si>
-  <si>
-    <t>(['другие'], 3.4028708934783936)</t>
+    <t>(['Он'], 9.87255573272705)</t>
+  </si>
+  <si>
+    <t>(['Бог'], 9.013434410095215)</t>
+  </si>
+  <si>
+    <t>(['Господь'], 8.223899841308594)</t>
+  </si>
+  <si>
+    <t>(['Князь'], 8.138039588928223)</t>
+  </si>
+  <si>
+    <t>(['Король'], 7.826430320739746)</t>
+  </si>
+  <si>
+    <t>(['Отец'], 7.802951812744141)</t>
+  </si>
+  <si>
+    <t>(['Принц'], 7.315494060516357)</t>
+  </si>
+  <si>
+    <t>(['Царь'], 7.2321672439575195)</t>
+  </si>
+  <si>
+    <t>(['Аллах'], 7.069983959197998)</t>
+  </si>
+  <si>
+    <t>(['Император'], 6.557947158813477)</t>
+  </si>
+  <si>
+    <t>(['Я'], 6.555239200592041)</t>
+  </si>
+  <si>
+    <t>(['Ты'], 6.532762050628662)</t>
+  </si>
+  <si>
+    <t>(['Государь'], 6.50536584854126)</t>
+  </si>
+  <si>
+    <t>(['Наполеон'], 6.417240619659424)</t>
+  </si>
+  <si>
+    <t>(['Пушкин'], 6.247716903686523)</t>
+  </si>
+  <si>
+    <t>(['Зевс'], 6.003991603851318)</t>
+  </si>
+  <si>
+    <t>(['Папа'], 5.914933681488037)</t>
+  </si>
+  <si>
+    <t>(['Иисус'], 5.891909599304199)</t>
+  </si>
+  <si>
+    <t>(['Дядя'], 5.8744916915893555)</t>
+  </si>
+  <si>
+    <t>(['Брат'], 5.663676738739014)</t>
+  </si>
+  <si>
+    <t>(['Дьявол'], 5.464677810668945)</t>
+  </si>
+  <si>
+    <t>(['Александр'], 5.4328131675720215)</t>
+  </si>
+  <si>
+    <t>(['Христос'], 5.426258087158203)</t>
+  </si>
+  <si>
+    <t>(['Гитлер'], 5.37252950668335)</t>
+  </si>
+  <si>
+    <t>(['Сын'], 5.311423301696777)</t>
+  </si>
+  <si>
+    <t>(['Дед'], 5.25849723815918)</t>
+  </si>
+  <si>
+    <t>(['Герцог'], 5.1836652755737305)</t>
+  </si>
+  <si>
+    <t>(['Народ'], 5.171054363250732)</t>
+  </si>
+  <si>
+    <t>(['Кто'], 5.132991313934326)</t>
+  </si>
+  <si>
+    <t>(['Тот'], 5.128322124481201)</t>
+  </si>
+  <si>
+    <t>(['Мальчик'], 5.081869602203369)</t>
+  </si>
+  <si>
+    <t>(['И'], 5.060931205749512)</t>
+  </si>
+  <si>
+    <t>(['Путин'], 4.944094181060791)</t>
+  </si>
+  <si>
+    <t>(['Муж'], 4.943239212036133)</t>
+  </si>
+  <si>
+    <t>(['Владыка'], 4.88471794128418)</t>
+  </si>
+  <si>
+    <t>(['Герман'], 4.788880825042725)</t>
+  </si>
+  <si>
+    <t>(['Николай'], 4.784608840942383)</t>
+  </si>
+  <si>
+    <t>(['Учитель'], 4.778122425079346)</t>
+  </si>
+  <si>
+    <t>(['Грозный'], 4.696743011474609)</t>
+  </si>
+  <si>
+    <t>(['Сталин'], 4.683403015136719)</t>
+  </si>
+  <si>
+    <t>(['Человек'], 4.680169105529785)</t>
+  </si>
+  <si>
+    <t>(['Владимир'], 4.669274806976318)</t>
+  </si>
+  <si>
+    <t>(['Геракл'], 4.669105529785156)</t>
+  </si>
+  <si>
+    <t>(['Шамиль'], 4.660531997680664)</t>
+  </si>
+  <si>
+    <t>(['Поэт'], 4.629206657409668)</t>
+  </si>
+  <si>
+    <t>(['Будда'], 4.60989236831665)</t>
+  </si>
+  <si>
+    <t>(['Франциск'], 4.6098527908325195)</t>
+  </si>
+  <si>
+    <t>(['Павел'], 4.6024980545043945)</t>
+  </si>
+  <si>
+    <t>(['Город'], 4.588683605194092)</t>
+  </si>
+  <si>
+    <t>(['Врач'], 4.560122489929199)</t>
+  </si>
+  <si>
+    <t>(['Петр'], 4.558579921722412)</t>
+  </si>
+  <si>
+    <t>(['Слон'], 4.465344429016113)</t>
+  </si>
+  <si>
+    <t>(['Пророк'], 4.447450160980225)</t>
+  </si>
+  <si>
+    <t>(['Обама'], 4.429128646850586)</t>
+  </si>
+  <si>
+    <t>(['Боже'], 4.410486221313477)</t>
+  </si>
+  <si>
+    <t>(['Ромео'], 4.404057502746582)</t>
+  </si>
+  <si>
+    <t>(['Иосиф'], 4.4037394523620605)</t>
+  </si>
+  <si>
+    <t>(['Супруг'], 4.402416706085205)</t>
+  </si>
+  <si>
+    <t>(['Автор'], 4.381659030914307)</t>
+  </si>
+  <si>
+    <t>(['Крест'], 4.3780035972595215)</t>
+  </si>
+  <si>
+    <t>(['Шах'], 4.353142261505127)</t>
+  </si>
+  <si>
+    <t>(['Хан'], 4.344548225402832)</t>
+  </si>
+  <si>
+    <t>(['Султан'], 4.340341091156006)</t>
+  </si>
+  <si>
+    <t>(['Борис'], 4.339355945587158)</t>
+  </si>
+  <si>
+    <t>(['Мухаммед'], 4.302515506744385)</t>
+  </si>
+  <si>
+    <t>(['Граф'], 4.276736736297607)</t>
+  </si>
+  <si>
+    <t>(['Цезарь'], 4.266262054443359)</t>
+  </si>
+  <si>
+    <t>(['Губернатор'], 4.259918212890625)</t>
+  </si>
+  <si>
+    <t>(['Китай'], 4.25120735168457)</t>
+  </si>
+  <si>
+    <t>(['царь'], 4.240192890167236)</t>
+  </si>
+  <si>
+    <t>(['Василий'], 4.233333587646484)</t>
+  </si>
+  <si>
+    <t>(['Старик'], 4.218587875366211)</t>
+  </si>
+  <si>
+    <t>(['Лев'], 4.208763599395752)</t>
+  </si>
+  <si>
+    <t>(['Саддам'], 4.204756259918213)</t>
+  </si>
+  <si>
+    <t>(['Ангел'], 4.194502353668213)</t>
+  </si>
+  <si>
+    <t>(['Пётр'], 4.170793056488037)</t>
+  </si>
+  <si>
+    <t>(['он'], 4.169999122619629)</t>
+  </si>
+  <si>
+    <t>(['Сенат'], 4.161816120147705)</t>
+  </si>
+  <si>
+    <t>(['Андрей'], 4.159038543701172)</t>
+  </si>
+  <si>
+    <t>(['Дон'], 4.154731750488281)</t>
+  </si>
+  <si>
+    <t>(['Орден'], 4.147261142730713)</t>
+  </si>
+  <si>
+    <t>(['Род'], 4.146475791931152)</t>
+  </si>
+  <si>
+    <t>(['Солдат'], 4.142106056213379)</t>
+  </si>
+  <si>
+    <t>(['Тигр'], 4.136136531829834)</t>
+  </si>
+  <si>
+    <t>(['Михаил'], 4.128148078918457)</t>
+  </si>
+  <si>
+    <t>(['Чехов'], 4.124842643737793)</t>
+  </si>
+  <si>
+    <t>(['Юноша'], 4.089115619659424)</t>
+  </si>
+  <si>
+    <t>(['Ганнибал'], 4.075018405914307)</t>
+  </si>
+  <si>
+    <t>(['Гомер'], 4.073019027709961)</t>
+  </si>
+  <si>
+    <t>(['Иван'], 4.070713520050049)</t>
+  </si>
+  <si>
+    <t>(['Буш'], 4.047970771789551)</t>
+  </si>
+  <si>
+    <t>(['Карл'], 4.04523229598999)</t>
+  </si>
+  <si>
+    <t>(['Джек'], 4.011270523071289)</t>
+  </si>
+  <si>
+    <t>(['Медведь'], 4.004679203033447)</t>
+  </si>
+  <si>
+    <t>(['Джексон'], 3.99558687210083)</t>
+  </si>
+  <si>
+    <t>(['Вацлав'], 3.990054130554199)</t>
+  </si>
+  <si>
+    <t>(['Нерон'], 3.97344708442688)</t>
+  </si>
+  <si>
+    <t>(['Дракон'], 3.9707577228546143)</t>
+  </si>
+  <si>
+    <t>(['Полковник'], 3.966273069381714)</t>
+  </si>
+  <si>
+    <t>(['Капитан'], 3.9474620819091797)</t>
+  </si>
+  <si>
+    <t>(['сказал'], 9.025908470153809)</t>
+  </si>
+  <si>
+    <t>(['дал'], 8.842609405517578)</t>
+  </si>
+  <si>
+    <t>(['показал'], 8.63537883758545)</t>
+  </si>
+  <si>
+    <t>(['же'], 7.412566661834717)</t>
+  </si>
+  <si>
+    <t>(['велел'], 7.318543434143066)</t>
+  </si>
+  <si>
+    <t>(['послал'], 7.130144119262695)</t>
+  </si>
+  <si>
+    <t>(['подарил'], 6.985969543457031)</t>
+  </si>
+  <si>
+    <t>(['и'], 6.968160152435303)</t>
+  </si>
+  <si>
+    <t>(['сделал'], 6.833475112915039)</t>
+  </si>
+  <si>
+    <t>(['был'], 6.740753173828125)</t>
+  </si>
+  <si>
+    <t>(['оставил'], 6.7022385597229)</t>
+  </si>
+  <si>
+    <t>(['бы'], 6.4352569580078125)</t>
+  </si>
+  <si>
+    <t>(['заказал'], 6.27817440032959)</t>
+  </si>
+  <si>
+    <t>(['повелел'], 6.272965431213379)</t>
+  </si>
+  <si>
+    <t>(['дает'], 6.234546661376953)</t>
+  </si>
+  <si>
+    <t>(['во'], 6.200454235076904)</t>
+  </si>
+  <si>
+    <t>(['написал'], 6.193958282470703)</t>
+  </si>
+  <si>
+    <t>(['прислал'], 6.112412929534912)</t>
+  </si>
+  <si>
+    <t>(['представил'], 6.090986728668213)</t>
+  </si>
+  <si>
+    <t>(['ко'], 6.062775611877441)</t>
+  </si>
+  <si>
+    <t>(['##е'], 6.059398651123047)</t>
+  </si>
+  <si>
+    <t>(['говорил'], 6.048191070556641)</t>
+  </si>
+  <si>
+    <t>(['предложил'], 6.028552055358887)</t>
+  </si>
+  <si>
+    <t>(['приказал'], 5.9846906661987305)</t>
+  </si>
+  <si>
+    <t>(['нанес'], 5.960350513458252)</t>
+  </si>
+  <si>
+    <t>(['отдал'], 5.8465576171875)</t>
+  </si>
+  <si>
+    <t>(['передал'], 5.716677665710449)</t>
+  </si>
+  <si>
+    <t>(['принес'], 5.660402774810791)</t>
+  </si>
+  <si>
+    <t>(['мне'], 5.568370342254639)</t>
+  </si>
+  <si>
+    <t>(['оказал'], 5.545312881469727)</t>
+  </si>
+  <si>
+    <t>(['говорит'], 5.47679328918457)</t>
+  </si>
+  <si>
+    <t>(['дам'], 5.466815948486328)</t>
+  </si>
+  <si>
+    <t>(['на'], 5.461580753326416)</t>
+  </si>
+  <si>
+    <t>(['показывает'], 5.452670097351074)</t>
+  </si>
+  <si>
+    <t>(['сообщил'], 5.408783912658691)</t>
+  </si>
+  <si>
+    <t>([','], 5.361380577087402)</t>
+  </si>
+  <si>
+    <t>(['он'], 5.350157260894775)</t>
+  </si>
+  <si>
+    <t>(['обещал'], 5.29409122467041)</t>
+  </si>
+  <si>
+    <t>(['открыл'], 5.266304969787598)</t>
+  </si>
+  <si>
+    <t>(['предоставил'], 5.265951156616211)</t>
+  </si>
+  <si>
+    <t>(['показывал'], 5.253788948059082)</t>
+  </si>
+  <si>
+    <t>(['указал'], 5.20062780380249)</t>
+  </si>
+  <si>
+    <t>(['а'], 5.189266681671143)</t>
+  </si>
+  <si>
+    <t>(['выдал'], 5.154118537902832)</t>
+  </si>
+  <si>
+    <t>(['да'], 5.145951271057129)</t>
+  </si>
+  <si>
+    <t>(['дар'], 5.137964248657227)</t>
+  </si>
+  <si>
+    <t>(['его'], 5.123152256011963)</t>
+  </si>
+  <si>
+    <t>(['давал'], 5.0487284660339355)</t>
+  </si>
+  <si>
+    <t>(['к'], 5.044635772705078)</t>
+  </si>
+  <si>
+    <t>(['пожаловал'], 5.025892734527588)</t>
+  </si>
+  <si>
+    <t>(['даровал'], 5.016513347625732)</t>
+  </si>
+  <si>
+    <t>(['##ил'], 4.9970622062683105)</t>
+  </si>
+  <si>
+    <t>(['ему'], 4.986790180206299)</t>
+  </si>
+  <si>
+    <t>(['писал'], 4.962661266326904)</t>
+  </si>
+  <si>
+    <t>(['##а'], 4.949625015258789)</t>
+  </si>
+  <si>
+    <t>(['при'], 4.939279556274414)</t>
+  </si>
+  <si>
+    <t>(['##у'], 4.907299041748047)</t>
+  </si>
+  <si>
+    <t>(['как'], 4.887753963470459)</t>
+  </si>
+  <si>
+    <t>(['положил'], 4.8079938888549805)</t>
+  </si>
+  <si>
+    <t>(['читал'], 4.797135829925537)</t>
+  </si>
+  <si>
+    <t>(['рассказал'], 4.79402494430542)</t>
+  </si>
+  <si>
+    <t>(['назначил'], 4.7704386711120605)</t>
+  </si>
+  <si>
+    <t>(['носил'], 4.763212203979492)</t>
+  </si>
+  <si>
+    <t>(['посылал'], 4.759789943695068)</t>
+  </si>
+  <si>
+    <t>(['даст'], 4.75401496887207)</t>
+  </si>
+  <si>
+    <t>(['выбрал'], 4.738909721374512)</t>
+  </si>
+  <si>
+    <t>(['я'], 4.726924419403076)</t>
+  </si>
+  <si>
+    <t>(['##ъ'], 4.7096967697143555)</t>
+  </si>
+  <si>
+    <t>(['поднес'], 4.690572261810303)</t>
+  </si>
+  <si>
+    <t>(['пожелал'], 4.687450885772705)</t>
+  </si>
+  <si>
+    <t>(['сказать'], 4.662598609924316)</t>
+  </si>
+  <si>
+    <t>(['нашел'], 4.661968231201172)</t>
+  </si>
+  <si>
+    <t>(['изменил'], 4.634623050689697)</t>
+  </si>
+  <si>
+    <t>(['делал'], 4.626214504241943)</t>
+  </si>
+  <si>
+    <t>(['о'], 4.610641956329346)</t>
+  </si>
+  <si>
+    <t>(['##ел'], 4.603781700134277)</t>
+  </si>
+  <si>
+    <t>(['завещал'], 4.598421573638916)</t>
+  </si>
+  <si>
+    <t>(['по'], 4.596069812774658)</t>
+  </si>
+  <si>
+    <t>(['получил'], 4.588759899139404)</t>
+  </si>
+  <si>
+    <t>(['показался'], 4.581298351287842)</t>
+  </si>
+  <si>
+    <t>(['дарит'], 4.566100597381592)</t>
+  </si>
+  <si>
+    <t>(['что'], 4.539909839630127)</t>
+  </si>
+  <si>
+    <t>(['продал'], 4.5149102210998535)</t>
+  </si>
+  <si>
+    <t>(['лет'], 4.509927272796631)</t>
+  </si>
+  <si>
+    <t>([':'], 4.50665283203125)</t>
+  </si>
+  <si>
+    <t>(['купил'], 4.4518561363220215)</t>
+  </si>
+  <si>
+    <t>(['явился'], 4.45155143737793)</t>
+  </si>
+  <si>
+    <t>(['отправил'], 4.4498724937438965)</t>
+  </si>
+  <si>
+    <t>(['принёс'], 4.442204475402832)</t>
+  </si>
+  <si>
+    <t>(['просил'], 4.430813312530518)</t>
+  </si>
+  <si>
+    <t>(['устроил'], 4.426233291625977)</t>
+  </si>
+  <si>
+    <t>(['-'], 4.416774749755859)</t>
+  </si>
+  <si>
+    <t>(['бил'], 4.390407085418701)</t>
+  </si>
+  <si>
+    <t>(['##л'], 4.368799209594727)</t>
+  </si>
+  <si>
+    <t>(['посылает'], 4.36432409286499)</t>
+  </si>
+  <si>
+    <t>(['подарила'], 4.36366605758667)</t>
+  </si>
+  <si>
+    <t>(['в'], 4.356537342071533)</t>
+  </si>
+  <si>
+    <t>(['меня'], 4.331021308898926)</t>
+  </si>
+  <si>
+    <t>(['пред'], 4.319880962371826)</t>
+  </si>
+  <si>
+    <t>(['есть'], 4.318089962005615)</t>
+  </si>
+  <si>
+    <t>(['ему'], 9.329940795898438)</t>
+  </si>
+  <si>
+    <t>(['ей'], 9.136446952819824)</t>
+  </si>
+  <si>
+    <t>(['мне'], 7.781633377075195)</t>
+  </si>
+  <si>
+    <t>(['тебе'], 7.479710578918457)</t>
+  </si>
+  <si>
+    <t>(['им'], 7.349538326263428)</t>
+  </si>
+  <si>
+    <t>(['нам'], 7.3041253089904785)</t>
+  </si>
+  <si>
+    <t>(['свои'], 6.821113586425781)</t>
+  </si>
+  <si>
+    <t>(['вам'], 6.628678321838379)</t>
+  </si>
+  <si>
+    <t>(['себе'], 6.401413440704346)</t>
+  </si>
+  <si>
+    <t>(['жене'], 6.241262912750244)</t>
+  </si>
+  <si>
+    <t>(['в'], 6.086942195892334)</t>
+  </si>
+  <si>
+    <t>(['своим'], 5.938720703125)</t>
+  </si>
+  <si>
+    <t>(['Анне'], 5.822970867156982)</t>
+  </si>
+  <si>
+    <t>(['царю'], 5.816690444946289)</t>
+  </si>
+  <si>
+    <t>(['и'], 5.775916576385498)</t>
+  </si>
+  <si>
+    <t>(['отцу'], 5.634589195251465)</t>
+  </si>
+  <si>
+    <t>(['всем'], 5.607565879821777)</t>
+  </si>
+  <si>
+    <t>(['городу'], 5.577078342437744)</t>
+  </si>
+  <si>
+    <t>(['его'], 5.551456928253174)</t>
+  </si>
+  <si>
+    <t>(['императору'], 5.512096881866455)</t>
+  </si>
+  <si>
+    <t>(['миру'], 5.4876885414123535)</t>
+  </si>
+  <si>
+    <t>(['свой'], 5.466987133026123)</t>
+  </si>
+  <si>
+    <t>(['сыну'], 5.438007831573486)</t>
+  </si>
+  <si>
+    <t>(['матери'], 5.307562828063965)</t>
+  </si>
+  <si>
+    <t>(['дочери'], 5.27171516418457)</t>
+  </si>
+  <si>
+    <t>(['все'], 5.256851673126221)</t>
+  </si>
+  <si>
+    <t>(['девушке'], 5.213521480560303)</t>
+  </si>
+  <si>
+    <t>(['России'], 5.145256042480469)</t>
+  </si>
+  <si>
+    <t>(['императрице'], 5.1431050300598145)</t>
+  </si>
+  <si>
+    <t>(['королю'], 5.090039253234863)</t>
+  </si>
+  <si>
+    <t>(['её'], 5.086134433746338)</t>
+  </si>
+  <si>
+    <t>(['людям'], 5.075729846954346)</t>
+  </si>
+  <si>
+    <t>(['своей'], 4.943414211273193)</t>
+  </si>
+  <si>
+    <t>(['мальчику'], 4.854765892028809)</t>
+  </si>
+  <si>
+    <t>(['султану'], 4.849357604980469)</t>
+  </si>
+  <si>
+    <t>(['Марии'], 4.8148016929626465)</t>
+  </si>
+  <si>
+    <t>(['женщине'], 4.801014423370361)</t>
+  </si>
+  <si>
+    <t>(['бы'], 4.7918009757995605)</t>
+  </si>
+  <si>
+    <t>(['своё'], 4.770082950592041)</t>
+  </si>
+  <si>
+    <t>(['супруге'], 4.7412109375)</t>
+  </si>
+  <si>
+    <t>(['самые'], 4.728630065917969)</t>
+  </si>
+  <si>
+    <t>(['принцу'], 4.728461742401123)</t>
+  </si>
+  <si>
+    <t>(['две'], 4.6106390953063965)</t>
+  </si>
+  <si>
+    <t>(['Вам'], 4.586818218231201)</t>
+  </si>
+  <si>
+    <t>(['Москве'], 4.547824382781982)</t>
+  </si>
+  <si>
+    <t>(['государю'], 4.500855922698975)</t>
+  </si>
+  <si>
+    <t>(['Владимиру'], 4.475343227386475)</t>
+  </si>
+  <si>
+    <t>(['детям'], 4.428080081939697)</t>
+  </si>
+  <si>
+    <t>(['женщинам'], 4.3721818923950195)</t>
+  </si>
+  <si>
+    <t>(['принцессе'], 4.368261814117432)</t>
+  </si>
+  <si>
+    <t>(['народу'], 4.359954357147217)</t>
+  </si>
+  <si>
+    <t>(['королеве'], 4.353299617767334)</t>
+  </si>
+  <si>
+    <t>(['"'], 4.338662147521973)</t>
+  </si>
+  <si>
+    <t>(['потомкам'], 4.334402561187744)</t>
+  </si>
+  <si>
+    <t>(['Польше'], 4.328924655914307)</t>
+  </si>
+  <si>
+    <t>(['Наполеону'], 4.282495975494385)</t>
+  </si>
+  <si>
+    <t>(['своему'], 4.281553268432617)</t>
+  </si>
+  <si>
+    <t>(['человечеству'], 4.274731636047363)</t>
+  </si>
+  <si>
+    <t>(['тому'], 4.258607864379883)</t>
+  </si>
+  <si>
+    <t>(['Петру'], 4.254989147186279)</t>
+  </si>
+  <si>
+    <t>(['князю'], 4.232370853424072)</t>
+  </si>
+  <si>
+    <t>(['свое'], 4.221029758453369)</t>
+  </si>
+  <si>
+    <t>(['свою'], 4.210507392883301)</t>
+  </si>
+  <si>
+    <t>(['брату'], 4.2017035484313965)</t>
+  </si>
+  <si>
+    <t>(['Тебе'], 4.18307638168335)</t>
+  </si>
+  <si>
+    <t>(['ее'], 4.1826019287109375)</t>
+  </si>
+  <si>
+    <t>(['племяннику'], 4.116329193115234)</t>
+  </si>
+  <si>
+    <t>(['другу'], 4.0825300216674805)</t>
+  </si>
+  <si>
+    <t>(['Елизавете'], 4.077715873718262)</t>
+  </si>
+  <si>
+    <t>(['Константину'], 4.071885585784912)</t>
+  </si>
+  <si>
+    <t>(['внуку'], 4.062772274017334)</t>
+  </si>
+  <si>
+    <t>(['грекам'], 4.05980110168457)</t>
+  </si>
+  <si>
+    <t>(['за'], 4.0531415939331055)</t>
+  </si>
+  <si>
+    <t>(['их'], 4.043788909912109)</t>
+  </si>
+  <si>
+    <t>(['Адаму'], 4.008938312530518)</t>
+  </si>
+  <si>
+    <t>(['на'], 3.99175763130188)</t>
+  </si>
+  <si>
+    <t>(['Михаилу'], 3.976654052734375)</t>
+  </si>
+  <si>
+    <t>(['Пушкину'], 3.965365171432495)</t>
+  </si>
+  <si>
+    <t>(['Александре'], 3.9568324089050293)</t>
+  </si>
+  <si>
+    <t>(['эти'], 3.953967571258545)</t>
+  </si>
+  <si>
+    <t>(['племени'], 3.952202558517456)</t>
+  </si>
+  <si>
+    <t>(['невесте'], 3.9483795166015625)</t>
+  </si>
+  <si>
+    <t>(['сестре'], 3.940803050994873)</t>
+  </si>
+  <si>
+    <t>(['братьям'], 3.919482707977295)</t>
+  </si>
+  <si>
+    <t>(['Александру'], 3.9176666736602783)</t>
+  </si>
+  <si>
+    <t>(['вдове'], 3.904974937438965)</t>
+  </si>
+  <si>
+    <t>(['Литве'], 3.8872311115264893)</t>
+  </si>
+  <si>
+    <t>([','], 3.8549816608428955)</t>
+  </si>
+  <si>
+    <t>(['очень'], 3.8357386589050293)</t>
+  </si>
+  <si>
+    <t>(['хозяину'], 3.8321821689605713)</t>
+  </si>
+  <si>
+    <t>(['Индии'], 3.77085542678833)</t>
+  </si>
+  <si>
+    <t>(['Персии'], 3.767078399658203)</t>
+  </si>
+  <si>
+    <t>(['Петербургу'], 3.761463165283203)</t>
+  </si>
+  <si>
+    <t>(['Филиппу'], 3.7533631324768066)</t>
+  </si>
+  <si>
+    <t>(['семье'], 3.7500476837158203)</t>
+  </si>
+  <si>
+    <t>(['человеку'], 3.741687297821045)</t>
+  </si>
+  <si>
+    <t>(['мои'], 3.733295440673828)</t>
+  </si>
+  <si>
+    <t>(['юноше'], 3.729681968688965)</t>
+  </si>
+  <si>
+    <t>(['Екатерине'], 3.728468179702759)</t>
+  </si>
+  <si>
+    <t>(['Елене'], 3.7162833213806152)</t>
+  </si>
+  <si>
+    <t>(['свой'], 8.941112518310547)</t>
+  </si>
+  <si>
+    <t>(['свои'], 6.994167327880859)</t>
+  </si>
+  <si>
+    <t>(['его'], 6.810718059539795)</t>
+  </si>
+  <si>
+    <t>(['мой'], 6.711697101593018)</t>
+  </si>
+  <si>
+    <t>(['и'], 6.169789791107178)</t>
+  </si>
+  <si>
+    <t>(['два'], 6.169540882110596)</t>
+  </si>
+  <si>
+    <t>(['серебряный'], 6.070716381072998)</t>
+  </si>
+  <si>
+    <t>(['три'], 5.988689422607422)</t>
+  </si>
+  <si>
+    <t>(['золотой'], 5.958259582519531)</t>
+  </si>
+  <si>
+    <t>(['один'], 5.743166446685791)</t>
+  </si>
+  <si>
+    <t>(['этот'], 5.6163330078125)</t>
+  </si>
+  <si>
+    <t>(['первый'], 5.590795993804932)</t>
+  </si>
+  <si>
+    <t>(['большой'], 5.525491237640381)</t>
+  </si>
+  <si>
+    <t>(['старый'], 5.1991801261901855)</t>
+  </si>
+  <si>
+    <t>(['новый'], 5.106098175048828)</t>
+  </si>
+  <si>
+    <t>(['бы'], 5.103079319000244)</t>
+  </si>
+  <si>
+    <t>(['мои'], 5.093271255493164)</t>
+  </si>
+  <si>
+    <t>(['в'], 5.041256427764893)</t>
+  </si>
+  <si>
+    <t>(['железный'], 4.929675579071045)</t>
+  </si>
+  <si>
+    <t>(['второй'], 4.915510654449463)</t>
+  </si>
+  <si>
+    <t>(['их'], 4.910359859466553)</t>
+  </si>
+  <si>
+    <t>(['золотые'], 4.826871871948242)</t>
+  </si>
+  <si>
+    <t>(['третий'], 4.816075325012207)</t>
+  </si>
+  <si>
+    <t>(['серебряные'], 4.783993721008301)</t>
+  </si>
+  <si>
+    <t>(['красный'], 4.752606391906738)</t>
+  </si>
+  <si>
+    <t>(['последний'], 4.673816204071045)</t>
+  </si>
+  <si>
+    <t>(['четыре'], 4.66080379486084)</t>
+  </si>
+  <si>
+    <t>(['огромный'], 4.640966892242432)</t>
+  </si>
+  <si>
+    <t>(['двадцать'], 4.592916011810303)</t>
+  </si>
+  <si>
+    <t>(['её'], 4.57839822769165)</t>
+  </si>
+  <si>
+    <t>(['сей'], 4.434453010559082)</t>
+  </si>
+  <si>
+    <t>(['ему'], 4.429150581359863)</t>
+  </si>
+  <si>
+    <t>(['мне'], 4.424135684967041)</t>
+  </si>
+  <si>
+    <t>(['прекрасный'], 4.390171051025391)</t>
+  </si>
+  <si>
+    <t>(['самый'], 4.3852033615112305)</t>
+  </si>
+  <si>
+    <t>(['наш'], 4.33554220199585)</t>
+  </si>
+  <si>
+    <t>(['знаменитый'], 4.3266215324401855)</t>
+  </si>
+  <si>
+    <t>(['"'], 4.275691032409668)</t>
+  </si>
+  <si>
+    <t>(['тот'], 4.261142253875732)</t>
+  </si>
+  <si>
+    <t>(['две'], 4.247074604034424)</t>
+  </si>
+  <si>
+    <t>(['собственный'], 4.243017196655273)</t>
+  </si>
+  <si>
+    <t>(['все'], 4.238256454467773)</t>
+  </si>
+  <si>
+    <t>(['наши'], 4.202239513397217)</t>
+  </si>
+  <si>
+    <t>(['на'], 4.194695472717285)</t>
+  </si>
+  <si>
+    <t>(['белый'], 4.192781925201416)</t>
+  </si>
+  <si>
+    <t>(['маленький'], 4.163844585418701)</t>
+  </si>
+  <si>
+    <t>(['эти'], 4.097114086151123)</t>
+  </si>
+  <si>
+    <t>(['ее'], 4.077644348144531)</t>
+  </si>
+  <si>
+    <t>(['за'], 4.06149959564209)</t>
+  </si>
+  <si>
+    <t>(['синий'], 3.9926705360412598)</t>
+  </si>
+  <si>
+    <t>(['тебе'], 3.987945318222046)</t>
+  </si>
+  <si>
+    <t>(['великолепный'], 3.9525883197784424)</t>
+  </si>
+  <si>
+    <t>(['красивый'], 3.916964292526245)</t>
+  </si>
+  <si>
+    <t>(['пять'], 3.885512113571167)</t>
+  </si>
+  <si>
+    <t>(['только'], 3.8022143840789795)</t>
+  </si>
+  <si>
+    <t>(['волшебный'], 3.7995636463165283)</t>
+  </si>
+  <si>
+    <t>(['легендарный'], 3.7509195804595947)</t>
+  </si>
+  <si>
+    <t>(['великий'], 3.7441561222076416)</t>
+  </si>
+  <si>
+    <t>(['старинный'], 3.7101643085479736)</t>
+  </si>
+  <si>
+    <t>(['2'], 3.7075531482696533)</t>
+  </si>
+  <si>
+    <t>(['себе'], 3.6979572772979736)</t>
+  </si>
+  <si>
+    <t>([','], 3.625016212463379)</t>
+  </si>
+  <si>
+    <t>(['царский'], 3.5973379611968994)</t>
+  </si>
+  <si>
+    <t>(['древний'], 3.5846493244171143)</t>
+  </si>
+  <si>
+    <t>(['драгоценный'], 3.572312355041504)</t>
+  </si>
+  <si>
+    <t>(['же'], 3.569091558456421)</t>
+  </si>
+  <si>
+    <t>(['семь'], 3.557591676712036)</t>
+  </si>
+  <si>
+    <t>(['триста'], 3.5424439907073975)</t>
+  </si>
+  <si>
+    <t>(['хороший'], 3.504915714263916)</t>
+  </si>
+  <si>
+    <t>(['чёрный'], 3.4995834827423096)</t>
+  </si>
+  <si>
+    <t>(['медный'], 3.4627721309661865)</t>
+  </si>
+  <si>
+    <t>(['тысячу'], 3.413557291030884)</t>
+  </si>
+  <si>
+    <t>(['—'], 3.376938819885254)</t>
+  </si>
+  <si>
+    <t>(['4'], 3.365262031555176)</t>
+  </si>
+  <si>
+    <t>(['персидский'], 3.3526663780212402)</t>
+  </si>
+  <si>
+    <t>(['3'], 3.3406476974487305)</t>
+  </si>
+  <si>
+    <t>(['ещё'], 3.3306241035461426)</t>
+  </si>
+  <si>
+    <t>(['…'], 3.3263258934020996)</t>
+  </si>
+  <si>
+    <t>(['особый'], 3.310563087463379)</t>
+  </si>
+  <si>
+    <t>(['еще'], 3.298375129699707)</t>
+  </si>
+  <si>
+    <t>(['сто'], 3.274888038635254)</t>
+  </si>
+  <si>
+    <t>(['любимый'], 3.2652857303619385)</t>
+  </si>
+  <si>
+    <t>(['весь'], 3.2556352615356445)</t>
+  </si>
+  <si>
+    <t>(['боевой'], 3.2417538166046143)</t>
+  </si>
+  <si>
+    <t>(['священный'], 3.2256410121917725)</t>
+  </si>
+  <si>
+    <t>(['голубой'], 3.2021987438201904)</t>
+  </si>
+  <si>
+    <t>(['черный'], 3.1909115314483643)</t>
+  </si>
+  <si>
+    <t>(['он'], 3.17736554145813)</t>
+  </si>
+  <si>
+    <t>(['другой'], 3.1731162071228027)</t>
+  </si>
+  <si>
+    <t>(['свою'], 3.17073130607605)</t>
+  </si>
+  <si>
+    <t>(['ваш'], 3.1652982234954834)</t>
+  </si>
+  <si>
+    <t>(['твой'], 3.1523940563201904)</t>
+  </si>
+  <si>
+    <t>(['твои'], 3.1386947631835938)</t>
+  </si>
+  <si>
+    <t>(['даже'], 3.136107921600342)</t>
+  </si>
+  <si>
+    <t>(['тридцать'], 3.1202971935272217)</t>
+  </si>
+  <si>
+    <t>(['святой'], 3.1184780597686768)</t>
+  </si>
+  <si>
+    <t>(['такой'], 3.089362144470215)</t>
+  </si>
+  <si>
+    <t>(['Георгиевский'], 3.0849311351776123)</t>
+  </si>
+  <si>
+    <t>(['сам'], 3.0190951824188232)</t>
+  </si>
+  <si>
+    <t>(['каждый'], 2.9493024349212646)</t>
+  </si>
+  <si>
+    <t>(['##й'], 12.451964378356934)</t>
+  </si>
+  <si>
+    <t>(['##м'], 10.012513160705566)</t>
+  </si>
+  <si>
+    <t>(['##е'], 8.449755668640137)</t>
+  </si>
+  <si>
+    <t>(['руки'], 8.332501411437988)</t>
+  </si>
+  <si>
+    <t>(['##ми'], 7.705338954925537)</t>
+  </si>
+  <si>
+    <t>(['##сти'], 7.432905197143555)</t>
+  </si>
+  <si>
+    <t>(['цвета'], 7.3642120361328125)</t>
+  </si>
+  <si>
+    <t>(['##х'], 7.343790531158447)</t>
+  </si>
+  <si>
+    <t>(['волосы'], 7.1644182205200195)</t>
+  </si>
+  <si>
+    <t>(['##я'], 7.036909103393555)</t>
+  </si>
+  <si>
+    <t>(['свой'], 6.928765296936035)</t>
+  </si>
+  <si>
+    <t>(['красивый'], 6.915797233581543)</t>
+  </si>
+  <si>
+    <t>(['мой'], 6.909249305725098)</t>
+  </si>
+  <si>
+    <t>(['##ю'], 6.904324531555176)</t>
+  </si>
+  <si>
+    <t>(['красный'], 6.880955219268799)</t>
+  </si>
+  <si>
+    <t>(['##ший'], 6.858199596405029)</t>
+  </si>
+  <si>
+    <t>(['##стью'], 6.834518909454346)</t>
+  </si>
+  <si>
+    <t>(['драгоценный'], 6.752668380737305)</t>
+  </si>
+  <si>
+    <t>(['серебряный'], 6.741092205047607)</t>
+  </si>
+  <si>
+    <t>(['его'], 6.696715354919434)</t>
+  </si>
+  <si>
+    <t>(['##к'], 6.681449890136719)</t>
+  </si>
+  <si>
+    <t>(['и'], 6.500338077545166)</t>
+  </si>
+  <si>
+    <t>(['##сть'], 6.439619541168213)</t>
+  </si>
+  <si>
+    <t>(['формы'], 6.347346305847168)</t>
+  </si>
+  <si>
+    <t>(['##ый'], 6.24316930770874)</t>
+  </si>
+  <si>
+    <t>(['им'], 6.178963661193848)</t>
+  </si>
+  <si>
+    <t>(['мне'], 6.124438285827637)</t>
+  </si>
+  <si>
+    <t>(['##с'], 6.080221176147461)</t>
+  </si>
+  <si>
+    <t>(['дорогой'], 6.036285400390625)</t>
+  </si>
+  <si>
+    <t>(['ему'], 6.035599231719971)</t>
+  </si>
+  <si>
+    <t>(['золотой'], 6.005008220672607)</t>
+  </si>
+  <si>
+    <t>(['как'], 5.935495853424072)</t>
+  </si>
+  <si>
+    <t>(['##л'], 5.85685396194458)</t>
+  </si>
+  <si>
+    <t>(['цвет'], 5.843531131744385)</t>
+  </si>
+  <si>
+    <t>(['легкий'], 5.801891326904297)</t>
+  </si>
+  <si>
+    <t>(['светлый'], 5.77073335647583)</t>
+  </si>
+  <si>
+    <t>(['##кий'], 5.768150329589844)</t>
+  </si>
+  <si>
+    <t>(['красками'], 5.75595760345459)</t>
+  </si>
+  <si>
+    <t>(['персидский'], 5.737602233886719)</t>
+  </si>
+  <si>
+    <t>(['бронзовый'], 5.726154804229736)</t>
+  </si>
+  <si>
+    <t>(['ей'], 5.72184944152832)</t>
+  </si>
+  <si>
+    <t>(['белый'], 5.70084285736084)</t>
+  </si>
+  <si>
+    <t>(['любимый'], 5.690517425537109)</t>
+  </si>
+  <si>
+    <t>(['меня'], 5.685072422027588)</t>
+  </si>
+  <si>
+    <t>([','], 5.6375603675842285)</t>
+  </si>
+  <si>
+    <t>(['кости'], 5.631764888763428)</t>
+  </si>
+  <si>
+    <t>(['в'], 5.618805885314941)</t>
+  </si>
+  <si>
+    <t>(['черный'], 5.571436882019043)</t>
+  </si>
+  <si>
+    <t>(['греческий'], 5.5185627937316895)</t>
+  </si>
+  <si>
+    <t>(['краской'], 5.507999897003174)</t>
+  </si>
+  <si>
+    <t>(['блестящий'], 5.4634222984313965)</t>
+  </si>
+  <si>
+    <t>(['пальцы'], 5.45587158203125)</t>
+  </si>
+  <si>
+    <t>(['##ный'], 5.448450088500977)</t>
+  </si>
+  <si>
+    <t>(['-'], 5.436184406280518)</t>
+  </si>
+  <si>
+    <t>(['глаза'], 5.432613372802734)</t>
+  </si>
+  <si>
+    <t>(['золотом'], 5.409369468688965)</t>
+  </si>
+  <si>
+    <t>(['руками'], 5.399361610412598)</t>
+  </si>
+  <si>
+    <t>(['золотые'], 5.392219066619873)</t>
+  </si>
+  <si>
+    <t>(['вещи'], 5.346338272094727)</t>
+  </si>
+  <si>
+    <t>(['раны'], 5.345708847045898)</t>
+  </si>
+  <si>
+    <t>(['земли'], 5.311883449554443)</t>
+  </si>
+  <si>
+    <t>(['черты'], 5.291253089904785)</t>
+  </si>
+  <si>
+    <t>(['ноги'], 5.287807941436768)</t>
+  </si>
+  <si>
+    <t>(['##го'], 5.269247531890869)</t>
+  </si>
+  <si>
+    <t>(['волос'], 5.268546104431152)</t>
+  </si>
+  <si>
+    <t>(['##сь'], 5.263589382171631)</t>
+  </si>
+  <si>
+    <t>(['мои'], 5.263045787811279)</t>
+  </si>
+  <si>
+    <t>(['на'], 5.257559776306152)</t>
+  </si>
+  <si>
+    <t>(['краски'], 5.225347518920898)</t>
+  </si>
+  <si>
+    <t>(['новый'], 5.218236923217773)</t>
+  </si>
+  <si>
+    <t>(['был'], 5.181461811065674)</t>
+  </si>
+  <si>
+    <t>(['длинный'], 5.177689075469971)</t>
+  </si>
+  <si>
+    <t>(['металлический'], 5.118747234344482)</t>
+  </si>
+  <si>
+    <t>(['ткани'], 5.118342876434326)</t>
+  </si>
+  <si>
+    <t>(['эмали'], 5.100761413574219)</t>
+  </si>
+  <si>
+    <t>(['же'], 5.066514492034912)</t>
+  </si>
+  <si>
+    <t>(['серебряные'], 5.062058448791504)</t>
+  </si>
+  <si>
+    <t>(['##Й'], 5.058164119720459)</t>
+  </si>
+  <si>
+    <t>(['##лый'], 5.057065486907959)</t>
+  </si>
+  <si>
+    <t>(['##ся'], 5.03217887878418)</t>
+  </si>
+  <si>
+    <t>(['##льный'], 5.016541004180908)</t>
+  </si>
+  <si>
+    <t>(['##тый'], 4.972607612609863)</t>
+  </si>
+  <si>
+    <t>(['сей'], 4.969160079956055)</t>
+  </si>
+  <si>
+    <t>(['##в'], 4.964216232299805)</t>
+  </si>
+  <si>
+    <t>(['перчатки'], 4.952531337738037)</t>
+  </si>
+  <si>
+    <t>(['первый'], 4.948664665222168)</t>
+  </si>
+  <si>
+    <t>(['нос'], 4.940062046051025)</t>
+  </si>
+  <si>
+    <t>(['теплый'], 4.928692817687988)</t>
+  </si>
+  <si>
+    <t>(['старый'], 4.902742385864258)</t>
+  </si>
+  <si>
+    <t>(['тонкий'], 4.884860038757324)</t>
+  </si>
+  <si>
+    <t>(['фигуры'], 4.864964008331299)</t>
+  </si>
+  <si>
+    <t>(['работы'], 4.851805686950684)</t>
+  </si>
+  <si>
+    <t>(['силы'], 4.83734130859375)</t>
+  </si>
+  <si>
+    <t>(['##вой'], 4.812063694000244)</t>
+  </si>
+  <si>
+    <t>(['Серебряный'], 4.800654411315918)</t>
+  </si>
+  <si>
+    <t>(['##рой'], 4.7935686111450195)</t>
+  </si>
+  <si>
+    <t>(['маленький'], 4.793095111846924)</t>
+  </si>
+  <si>
+    <t>(['части'], 4.790401935577393)</t>
+  </si>
+  <si>
+    <t>(['знаменитый'], 4.781922340393066)</t>
+  </si>
+  <si>
+    <t>(['нам'], 4.781569004058838)</t>
+  </si>
+  <si>
+    <t>(['.'], 11.866226196289062)</t>
+  </si>
+  <si>
+    <t>(['…'], 9.732365608215332)</t>
+  </si>
+  <si>
+    <t>(['!'], 8.397330284118652)</t>
+  </si>
+  <si>
+    <t>(['?'], 7.858976364135742)</t>
+  </si>
+  <si>
+    <t>(['яблоки'], 7.189708232879639)</t>
+  </si>
+  <si>
+    <t>(['вещи'], 6.9633307456970215)</t>
+  </si>
+  <si>
+    <t>(['цветы'], 6.708841800689697)</t>
+  </si>
+  <si>
+    <t>(['сапоги'], 6.622186660766602)</t>
+  </si>
+  <si>
+    <t>(['глаза'], 6.567317962646484)</t>
+  </si>
+  <si>
+    <t>(['украшения'], 6.477033615112305)</t>
+  </si>
+  <si>
+    <t>([';'], 6.360908508300781)</t>
+  </si>
+  <si>
+    <t>(['волосы'], 6.352563858032227)</t>
+  </si>
+  <si>
+    <t>(['плоды'], 6.276107311248779)</t>
+  </si>
+  <si>
+    <t>(['одежды'], 6.249197006225586)</t>
+  </si>
+  <si>
+    <t>(['руки'], 6.215285301208496)</t>
+  </si>
+  <si>
+    <t>([','], 6.2020673751831055)</t>
+  </si>
+  <si>
+    <t>(['изделия'], 6.097651958465576)</t>
+  </si>
+  <si>
+    <t>(['камни'], 5.972476482391357)</t>
+  </si>
+  <si>
+    <t>(['»'], 5.9698100090026855)</t>
+  </si>
+  <si>
+    <t>(['часы'], 5.964467525482178)</t>
+  </si>
+  <si>
+    <t>([':'], 5.955450534820557)</t>
+  </si>
+  <si>
+    <t>(['ноги'], 5.899466514587402)</t>
+  </si>
+  <si>
+    <t>(['"'], 5.888837814331055)</t>
+  </si>
+  <si>
+    <t>(['знаки'], 5.8757829666137695)</t>
+  </si>
+  <si>
+    <t>(['кристаллы'], 5.8191680908203125)</t>
+  </si>
+  <si>
+    <t>(['слова'], 5.818403720855713)</t>
+  </si>
+  <si>
+    <t>(['цвета'], 5.772038459777832)</t>
+  </si>
+  <si>
+    <t>(['зубы'], 5.714748382568359)</t>
+  </si>
+  <si>
+    <t>(['серьги'], 5.550548553466797)</t>
+  </si>
+  <si>
+    <t>(['краски'], 5.516439437866211)</t>
+  </si>
+  <si>
+    <t>(['крылья'], 5.504271507263184)</t>
+  </si>
+  <si>
+    <t>(['сердца'], 5.484515190124512)</t>
+  </si>
+  <si>
+    <t>(['листья'], 5.365227699279785)</t>
+  </si>
+  <si>
+    <t>(['розы'], 5.350794315338135)</t>
+  </si>
+  <si>
+    <t>(['ветви'], 5.338070392608643)</t>
+  </si>
+  <si>
+    <t>(['трубы'], 5.334872245788574)</t>
+  </si>
+  <si>
+    <t>(['ботинки'], 5.334246635437012)</t>
+  </si>
+  <si>
+    <t>(['перчатки'], 5.305497169494629)</t>
+  </si>
+  <si>
+    <t>(['пальцы'], 5.263341903686523)</t>
+  </si>
+  <si>
+    <t>(['яйца'], 5.083579063415527)</t>
+  </si>
+  <si>
+    <t>(['деньги'], 5.009181022644043)</t>
+  </si>
+  <si>
+    <t>(['очки'], 4.992968559265137)</t>
+  </si>
+  <si>
+    <t>(['книги'], 4.983016490936279)</t>
+  </si>
+  <si>
+    <t>(['драгоценности'], 4.954883098602295)</t>
+  </si>
+  <si>
+    <t>(['доспехи'], 4.877372741699219)</t>
+  </si>
+  <si>
+    <t>(['ключи'], 4.873559474945068)</t>
+  </si>
+  <si>
+    <t>(['работы'], 4.793313980102539)</t>
+  </si>
+  <si>
+    <t>(['перья'], 4.770792484283447)</t>
+  </si>
+  <si>
+    <t>(['воды'], 4.770298004150391)</t>
+  </si>
+  <si>
+    <t>(['дни'], 4.75697660446167)</t>
+  </si>
+  <si>
+    <t>(['части'], 4.7411603927612305)</t>
+  </si>
+  <si>
+    <t>(['лапки'], 4.708130836486816)</t>
+  </si>
+  <si>
+    <t>(['образцы'], 4.698139190673828)</t>
+  </si>
+  <si>
+    <t>(['свечи'], 4.696932792663574)</t>
+  </si>
+  <si>
+    <t>(['сосуды'], 4.686100959777832)</t>
+  </si>
+  <si>
+    <t>(['слёзы'], 4.647380828857422)</t>
+  </si>
+  <si>
+    <t>(['лепестки'], 4.601708889007568)</t>
+  </si>
+  <si>
+    <t>(['кольца'], 4.600406169891357)</t>
+  </si>
+  <si>
+    <t>(['мечи'], 4.563294887542725)</t>
+  </si>
+  <si>
+    <t>(['дары'], 4.552402496337891)</t>
+  </si>
+  <si>
+    <t>(['вазы'], 4.532303810119629)</t>
+  </si>
+  <si>
+    <t>(['слезы'], 4.513617038726807)</t>
+  </si>
+  <si>
+    <t>(['венки'], 4.476892471313477)</t>
+  </si>
+  <si>
+    <t>(['туфли'], 4.470829010009766)</t>
+  </si>
+  <si>
+    <t>(['сокровища'], 4.464831352233887)</t>
+  </si>
+  <si>
+    <t>(['медали'], 4.443099021911621)</t>
+  </si>
+  <si>
+    <t>(['пластинки'], 4.385546684265137)</t>
+  </si>
+  <si>
+    <t>(['орехи'], 4.349668502807617)</t>
+  </si>
+  <si>
+    <t>(['портреты'], 4.300444602966309)</t>
+  </si>
+  <si>
+    <t>(['формы'], 4.286098480224609)</t>
+  </si>
+  <si>
+    <t>(['подарки'], 4.268721580505371)</t>
+  </si>
+  <si>
+    <t>(['диски'], 4.26804256439209)</t>
+  </si>
+  <si>
+    <t>(['раковины'], 4.217692852020264)</t>
+  </si>
+  <si>
+    <t>(['награды'], 4.211945056915283)</t>
+  </si>
+  <si>
+    <t>(['семена'], 4.194980144500732)</t>
+  </si>
+  <si>
+    <t>(['венец'], 4.184383869171143)</t>
+  </si>
+  <si>
+    <t>(['раны'], 4.165823936462402)</t>
+  </si>
+  <si>
+    <t>(['труды'], 4.161492347717285)</t>
+  </si>
+  <si>
+    <t>(['сабли'], 4.160462856292725)</t>
+  </si>
+  <si>
+    <t>(['нити'], 4.115556716918945)</t>
+  </si>
+  <si>
+    <t>(['уши'], 4.113894462585449)</t>
+  </si>
+  <si>
+    <t>(['доли'], 4.113371849060059)</t>
+  </si>
+  <si>
+    <t>(['кресты'], 4.1123576164245605)</t>
+  </si>
+  <si>
+    <t>(['и'], 4.111940383911133)</t>
+  </si>
+  <si>
+    <t>(['ткани'], 4.108719348907471)</t>
+  </si>
+  <si>
+    <t>(['кисти'], 4.103376865386963)</t>
+  </si>
+  <si>
+    <t>(['горы'], 4.091148376464844)</t>
+  </si>
+  <si>
+    <t>(['лилии'], 4.074743270874023)</t>
+  </si>
+  <si>
+    <t>(['картины'], 4.043982982635498)</t>
+  </si>
+  <si>
+    <t>(['напитки'], 4.040147304534912)</t>
+  </si>
+  <si>
+    <t>(['предметы'], 4.030175685882568)</t>
+  </si>
+  <si>
+    <t>(['цветки'], 4.010445594787598)</t>
+  </si>
+  <si>
+    <t>(['шапки'], 3.996857166290283)</t>
+  </si>
+  <si>
+    <t>(['пояса'], 3.9799485206604004)</t>
+  </si>
+  <si>
+    <t>(['лучи'], 3.973210096359253)</t>
+  </si>
+  <si>
+    <t>(['земли'], 3.9666671752929688)</t>
+  </si>
+  <si>
+    <t>(['монеты'], 3.9548654556274414)</t>
+  </si>
+  <si>
+    <t>(['носки'], 3.953068733215332)</t>
+  </si>
+  <si>
+    <t>(['алмазы'], 3.941943407058716)</t>
+  </si>
+  <si>
+    <t>(['инструменты'], 3.9180314540863037)</t>
   </si>
   <si>
     <t>('господь::иисус', 0.6586170196533203)</t>
